--- a/Deliverables/v4-ASVS-checklist-en.xlsx
+++ b/Deliverables/v4-ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1201399_isep_ipp_pt/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71BBCFB-643A-4283-9AE8-238292A866D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FD4531-A40F-4D3D-A15D-078029E4D8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="816">
   <si>
     <t>Security Category</t>
   </si>
@@ -590,9 +590,7 @@
     <t>Verify that user set passwords are at least 12 characters in length (after multiple spaces are combined). ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
-    <t>@NotBlank
-@Size(min = 6, max = 52)
-private String password;</t>
+    <t>RegisterUserRequest.java</t>
   </si>
   <si>
     <t>2.1.2</t>
@@ -616,18 +614,33 @@
     <t>Verify that any printable Unicode character, including language neutral characters such as spaces and Emojis are permitted in passwords.</t>
   </si>
   <si>
+    <t>No restriction to characters is made.</t>
+  </si>
+  <si>
     <t>2.1.5</t>
   </si>
   <si>
     <t>Verify users can change their password.</t>
   </si>
   <si>
+    <t>UserController.java (/account/password/reset)</t>
+  </si>
+  <si>
+    <t>This route allows the user to change its password</t>
+  </si>
+  <si>
     <t>2.1.6</t>
   </si>
   <si>
     <t>Verify that password change functionality requires the user's current and new password.</t>
   </si>
   <si>
+    <t>PasswordResetRequest.java</t>
+  </si>
+  <si>
+    <t>The password reset request requires an old password, a new password and a new password confirmation</t>
+  </si>
+  <si>
     <t>2.1.7</t>
   </si>
   <si>
@@ -709,6 +722,9 @@
     <t>Verify that where a Credential Service Provider (CSP) and the application verifying authentication are separated, mutually authenticated TLS is in place between the two endpoints.</t>
   </si>
   <si>
+    <t>To be implemented.</t>
+  </si>
+  <si>
     <t>2.2.6</t>
   </si>
   <si>
@@ -766,30 +782,48 @@
     <t>Verify that passwords are stored in a form that is resistant to offline attacks. Passwords SHALL be salted and hashed using an approved one-way key derivation or password hashing function. Key derivation and password hashing functions take a password, a salt, and a cost factor as inputs when generating a password hash. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Encoders.java</t>
+  </si>
+  <si>
+    <t>Use of BCrypt password encoder.</t>
+  </si>
+  <si>
     <t>2.4.2</t>
   </si>
   <si>
     <t>Verify that the salt is at least 32 bits in length and be chosen arbitrarily to minimize salt value collisions among stored hashes. For each credential, a unique salt value and the resulting hash SHALL be stored. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>BCrypt ensures this.</t>
+  </si>
+  <si>
     <t>2.4.3</t>
   </si>
   <si>
     <t>Verify that if PBKDF2 is used, the iteration count SHOULD be as large as verification server performance will allow, typically at least 100,000 iterations. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>BCrypt implements PBKDF2.</t>
+  </si>
+  <si>
     <t>2.4.4</t>
   </si>
   <si>
     <t>Verify that if bcrypt is used, the work factor SHOULD be as large as verification server performance will allow, with a minimum of 10. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>A value of 10 is used.</t>
+  </si>
+  <si>
     <t>2.4.5</t>
   </si>
   <si>
     <t>Verify that an additional iteration of a key derivation function is performed, using a salt value that is secret and known only to the verifier. Generate the salt value using an approved random bit generator [SP 800-90Ar1] and provide at least the minimum security strength specified in the latest revision of SP 800-131A. The secret salt value SHALL be stored separately from the hashed passwords (e.g., in a specialized device like a hardware security module).</t>
   </si>
   <si>
+    <t>The salt is not stored in a specialized device.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Credential Recovery </t>
   </si>
   <si>
@@ -799,6 +833,9 @@
     <t>Verify that a system generated initial activation or recovery secret is not sent in clear text to the user. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>There are no cases where recovery secrets are sent to the user.</t>
+  </si>
+  <si>
     <t>2.5.2</t>
   </si>
   <si>
@@ -811,12 +848,18 @@
     <t>Verify password credential recovery does not reveal the current password in any way. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>reset-password.component.ts</t>
+  </si>
+  <si>
     <t>2.5.4</t>
   </si>
   <si>
     <t>Verify shared or default accounts are not present (e.g. "root", "admin", or "sa").</t>
   </si>
   <si>
+    <t>The bootstrapped users have custom passwords</t>
+  </si>
+  <si>
     <t>2.5.5</t>
   </si>
   <si>
@@ -826,18 +869,30 @@
     <t>Verify that if an authentication factor is changed or replaced, that the user is notified of this event.</t>
   </si>
   <si>
+    <t>There are no authenticator factors.</t>
+  </si>
+  <si>
     <t>2.5.6</t>
   </si>
   <si>
     <t>Verify forgotten password, and other recovery paths use a secure recovery mechanism, such as time-based OTP (TOTP) or other soft token, mobile push, or another offline recovery mechanism. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>PasswordForgotListener.java</t>
+  </si>
+  <si>
+    <t>An email is sent in order to reset the password</t>
+  </si>
+  <si>
     <t>2.5.7</t>
   </si>
   <si>
     <t>Verify that if OTP or multi-factor authentication factors are lost, that evidence of identity proofing is performed at the same level as during enrollment.</t>
   </si>
   <si>
+    <t>There's no OTP or multi-factor auth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Look-up Secret Verifier </t>
   </si>
   <si>
@@ -961,6 +1016,9 @@
     <t>Verify that biometric authenticators are limited to use only as secondary factors in conjunction with either something you have and something you know.</t>
   </si>
   <si>
+    <t>Biometric authenticators aren't present in the application</t>
+  </si>
+  <si>
     <t>Cryptographic Verifier</t>
   </si>
   <si>
@@ -1006,6 +1064,12 @@
     <t>Verify that if passwords are required for service authentication, the service account used is not a default credential. (e.g. root/root or admin/admin are default in some services during installation).</t>
   </si>
   <si>
+    <t>application.yml</t>
+  </si>
+  <si>
+    <t>Even though the username and passwords aren't strong, they're not the defaults</t>
+  </si>
+  <si>
     <t>2.10.3</t>
   </si>
   <si>
@@ -1018,6 +1082,9 @@
     <t>Verify passwords, integrations with databases and third-party systems, seeds and internal secrets, and API keys are managed securely and not included in the source code or stored within source code repositories. Such storage SHOULD resist offline attacks. The use of a secure software key store (L1), hardware TPM, or an HSM (L3) is recommended for password storage.</t>
   </si>
   <si>
+    <t>The secrets are exposed in application.yml. A .env file could be used to hide the secrets</t>
+  </si>
+  <si>
     <t>Fundamental Session Management Security</t>
   </si>
   <si>
@@ -1027,6 +1094,9 @@
     <t>Verify the application never reveals session tokens in URL parameters or error messages.</t>
   </si>
   <si>
+    <t>Tokens are stored in the cookies and are not leaked anywhere else</t>
+  </si>
+  <si>
     <t>Session Binding</t>
   </si>
   <si>
@@ -1036,6 +1106,12 @@
     <t>Verify the application generates a new session token on user authentication. ([C6](https://www.owasp.org/index.php/OWASP_Proactive_Controls#tab=Formal_Numbering))</t>
   </si>
   <si>
+    <t>auth.effects.ts</t>
+  </si>
+  <si>
+    <t>On user authentication, an access token is generated and stored locally</t>
+  </si>
+  <si>
     <t>3.2.2</t>
   </si>
   <si>
@@ -1048,12 +1124,21 @@
     <t>Verify the application only stores session tokens in the browser using secure methods such as appropriately secured cookies (see section 3.4) or HTML 5 session storage.</t>
   </si>
   <si>
+    <t>token.service.ts</t>
+  </si>
+  <si>
+    <t>Cookies are used for the storage of the token</t>
+  </si>
+  <si>
     <t>3.2.4</t>
   </si>
   <si>
     <t>Verify that session tokens are generated using approved cryptographic algorithms. ([C6](https://www.owasp.org/index.php/OWASP_Proactive_Controls#tab=Formal_Numbering))</t>
   </si>
   <si>
+    <t>Spring Security OAuth is being used, which follows the best practices and defaults to secure cryptographic algorithms</t>
+  </si>
+  <si>
     <t>Session Termination</t>
   </si>
   <si>
@@ -1061,6 +1146,9 @@
   </si>
   <si>
     <t>Verify that logout and expiration invalidate the session token, such that the back button or a downstream relying party does not resume an authenticated session, including across relying parties. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>When the user performs a logout, the token is removed from the cookies storage</t>
   </si>
   <si>
     <t>3.3.2</t>
@@ -1072,6 +1160,113 @@
 * L3: 12 hours or 15 minutes of inactivity, with 2FA</t>
   </si>
   <si>
+    <r>
+      <t>Cookies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFB392F0"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>.set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFAB70"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>'usr'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFB392F0"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>.stringify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>(token), { expires</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF97583"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFF8F8F8"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> });</t>
+    </r>
+  </si>
+  <si>
+    <t>The token lasts for 365 days</t>
+  </si>
+  <si>
     <t>3.3.3</t>
   </si>
   <si>
@@ -1156,6 +1351,9 @@
     <t>Verify that  Relying Parties (RPs) specify the maximum authentication time to Credential Service Providers (CSPs) and that CSPs re-authenticate the subscriber if they haven't used a session within that period.</t>
   </si>
   <si>
+    <t>The use of tokens ensures this through the valid token time.</t>
+  </si>
+  <si>
     <t>3.6.2</t>
   </si>
   <si>
@@ -1216,6 +1414,9 @@
     <t>Verify that the application or framework enforces a strong anti-CSRF mechanism to protect authenticated functionality, and effective anti-automation or anti-CSRF protects unauthenticated functionality.</t>
   </si>
   <si>
+    <t>The resource server uses spring security which, by default, comes with csrf security enabled. On the other hand, the authorization server explicitly disables this protection</t>
+  </si>
+  <si>
     <t>Other Access Control Considerations</t>
   </si>
   <si>
@@ -1225,12 +1426,18 @@
     <t>Verify administrative interfaces use appropriate multi-factor authentication to prevent unauthorized use.</t>
   </si>
   <si>
+    <t>The application don't  have multi-factor autentication</t>
+  </si>
+  <si>
     <t>4.3.2</t>
   </si>
   <si>
     <t>Verify that directory browsing is disabled unless deliberately desired. Additionally, applications should not allow discovery or disclosure of file or directory metadata, such as Thumbs.db, .DS_Store, .git or .svn folders.</t>
   </si>
   <si>
+    <t>The application isn't yet deployed in a web server</t>
+  </si>
+  <si>
     <t>4.3.3</t>
   </si>
   <si>
@@ -1258,6 +1465,12 @@
     <t>Verify that all input (HTML form fields, REST requests, URL parameters, HTTP headers, cookies, batch files, RSS feeds, etc) is validated using positive validation (allow lists). ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>UpdateUserAddressRequest.java</t>
+  </si>
+  <si>
+    <t>The application accepts any city even if doesnt exist</t>
+  </si>
+  <si>
     <t>5.1.4</t>
   </si>
   <si>
@@ -1270,6 +1483,9 @@
     <t>Verify that URL redirects and forwards only allow destinations which appear on an allow list, or show a warning when redirecting to potentially untrusted content.</t>
   </si>
   <si>
+    <t>The application doesnt have allow list</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sanitization and Sandboxing </t>
   </si>
   <si>
@@ -1283,6 +1499,12 @@
   </si>
   <si>
     <t>Verify that the application sanitizes user input before passing to mail systems to protect against SMTP or IMAP injection.</t>
+  </si>
+  <si>
+    <t>SigninComponent.ts</t>
+  </si>
+  <si>
+    <t>emailPattern = '^[a-zA-Z0-9_!#$%&amp;’*+/=?`{|}~^.-]+@[a-zA-Z0-9.-]+$';    email: new FormControl(null, [Validators.required, Validators.pattern(this.emailPattern)]),</t>
   </si>
   <si>
     <t>5.2.4</t>
@@ -1362,6 +1584,9 @@
     <t>Verify that data selection or database queries (e.g. SQL, HQL, ORM, NoSQL) use parameterized queries, ORMs, entity frameworks, or are otherwise protected from database injection attacks. ([C3](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Use of the repository interfaces provided by the springboot framework</t>
+  </si>
+  <si>
     <t>5.3.5</t>
   </si>
   <si>
@@ -1434,6 +1659,9 @@
     <t>Verify that the application correctly restricts XML parsers to only use the most restrictive configuration possible and to ensure that unsafe features such as resolving external entities are disabled to prevent XML eXternal Entity (XXE) attacks.</t>
   </si>
   <si>
+    <t>XML isn't used</t>
+  </si>
+  <si>
     <t>5.5.3</t>
   </si>
   <si>
@@ -1446,6 +1674,9 @@
     <t>Verify that when parsing JSON in browsers or JavaScript-based backends, JSON.parse is used to parse the JSON document. Do not use eval() to parse JSON.</t>
   </si>
   <si>
+    <t>Eval is not used at all in the project</t>
+  </si>
+  <si>
     <t>Data Classification</t>
   </si>
   <si>
@@ -1455,6 +1686,12 @@
     <t>Verify that regulated private data is stored encrypted while at rest, such as Personally Identifiable Information (PII), sensitive personal information, or data assessed likely to be subject to EU's GDPR.</t>
   </si>
   <si>
+    <t>UserServiceImpl.java -&gt; updateUser</t>
+  </si>
+  <si>
+    <t>User's information, like the address, zip code, etc… is stored as plain text</t>
+  </si>
+  <si>
     <t>6.1.2</t>
   </si>
   <si>
@@ -1464,6 +1701,9 @@
     <t>Verify that regulated financial data is stored encrypted while at rest, such as financial accounts, defaults or credit history, tax records, pay history, beneficiaries, or de-anonymized market or research records.</t>
   </si>
   <si>
+    <t>The payment data isn't stored</t>
+  </si>
+  <si>
     <t>Algorithms</t>
   </si>
   <si>
@@ -1479,6 +1719,9 @@
     <t>Verify that industry proven or government approved cryptographic algorithms, modes, and libraries are used, instead of custom coded cryptography. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>It uses the BCrypt password encoder</t>
+  </si>
+  <si>
     <t>6.2.3</t>
   </si>
   <si>
@@ -1491,6 +1734,9 @@
     <t>Verify that random number, encryption or hashing algorithms, key lengths, rounds, ciphers or modes, can be reconfigured, upgraded, or swapped at any time, to protect against cryptographic breaks. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Simply construct another type of password encoder instead of the Bcrypt one and it will be injected</t>
+  </si>
+  <si>
     <t>6.2.5</t>
   </si>
   <si>
@@ -1557,6 +1803,9 @@
     <t>Verify that the application does not log credentials or payment details. Session tokens should only be stored in logs in an irreversible, hashed form. ([C9, C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Logging mechanisms are not implemented.</t>
+  </si>
+  <si>
     <t>Verify that the application does not log other sensitive data as defined under local privacy laws or relevant security policy. ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
@@ -1620,12 +1869,18 @@
     <t>Verify that a generic message is shown when an unexpected or security sensitive error occurs, potentially with a unique ID which support personnel can use to investigate. ([C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>General error messages don't provide a unique ID</t>
+  </si>
+  <si>
     <t>7.4.2</t>
   </si>
   <si>
     <t>Verify that exception handling (or a functional equivalent) is used across the codebase to account for expected and unexpected error conditions. ([C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>RestExceptionHandler.java</t>
+  </si>
+  <si>
     <t>7.4.3</t>
   </si>
   <si>
@@ -1686,12 +1941,18 @@
     <t xml:space="preserve"> Verify that data stored in browser storage (such as localStorage, sessionStorage, IndexedDB, or cookies) does not contain sensitive data.</t>
   </si>
   <si>
+    <t>Cookies maintain the access token of the user</t>
+  </si>
+  <si>
     <t>8.2.3</t>
   </si>
   <si>
     <t>Verify that authenticated data is cleared from client storage, such as the browser DOM, after the client or session is terminated.</t>
   </si>
   <si>
+    <t>Authentication token is removed when user logs out.</t>
+  </si>
+  <si>
     <t>Sensitive Private Data</t>
   </si>
   <si>
@@ -1701,6 +1962,9 @@
     <t>Verify that sensitive data is sent to the server in the HTTP message body or headers, and that query string parameters from any HTTP verb do not contain sensitive data.</t>
   </si>
   <si>
+    <t>UserController.java</t>
+  </si>
+  <si>
     <t>8.3.2</t>
   </si>
   <si>
@@ -1737,6 +2001,9 @@
     <t>Verify that sensitive or private information that is required to be encrypted, is encrypted using approved algorithms that provide both confidentiality and integrity. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Passwords are the only information being encrypted.</t>
+  </si>
+  <si>
     <t>8.3.8</t>
   </si>
   <si>
@@ -1752,6 +2019,9 @@
     <t>Verify that TLS is used for all client connectivity, and does not fall back to insecure or unencrypted communications. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Normal HTTP is used for communication</t>
+  </si>
+  <si>
     <t>9.1.2</t>
   </si>
   <si>
@@ -1764,6 +2034,9 @@
     <t>Verify that only the latest recommended versions of the TLS protocol are enabled, such as TLS 1.2 and TLS 1.3. The latest version of the TLS protocol should be the preferred option.</t>
   </si>
   <si>
+    <t>TLS isn't used</t>
+  </si>
+  <si>
     <t xml:space="preserve">Server Communication Security </t>
   </si>
   <si>
@@ -1806,6 +2079,9 @@
     <t>Verify that a code analysis tool is in use that can detect potentially malicious code, such as time functions, unsafe file operations and network connections.</t>
   </si>
   <si>
+    <t>SonarQube could be used for the backend</t>
+  </si>
+  <si>
     <t>Malicious Code Search</t>
   </si>
   <si>
@@ -1815,6 +2091,9 @@
     <t>Verify that the application source code and third party libraries do not contain unauthorized phone home or data collection capabilities. Where such functionality exists, obtain the user's permission for it to operate  before collecting any data.</t>
   </si>
   <si>
+    <t>There's no data collection</t>
+  </si>
+  <si>
     <t>10.2.2</t>
   </si>
   <si>
@@ -1827,12 +2106,18 @@
     <t>Verify that the application source code and third party libraries do not contain back doors, such as hard-coded or additional undocumented accounts or keys, code obfuscation, undocumented binary blobs, rootkits, or anti-debugging, insecure debugging features, or otherwise out of date, insecure, or hidden functionality that could be used maliciously if discovered.</t>
   </si>
   <si>
+    <t>The RedHat analysis describes many vulnerabilities of high level</t>
+  </si>
+  <si>
     <t>10.2.4</t>
   </si>
   <si>
     <t>Verify that the application source code and third party libraries do not contain time bombs by searching for date and time related functions.</t>
   </si>
   <si>
+    <t>There are no time-based behaviours</t>
+  </si>
+  <si>
     <t>10.2.5</t>
   </si>
   <si>
@@ -1881,6 +2166,9 @@
     <t>Verify that the application will only process business logic flows with all steps being processed in realistic human time, i.e. transactions are not submitted too quickly.</t>
   </si>
   <si>
+    <t>There are no mechanisms to verify execution time limits</t>
+  </si>
+  <si>
     <t>11.1.3</t>
   </si>
   <si>
@@ -1932,6 +2220,9 @@
     <t xml:space="preserve">Verify that the application checks compressed files (e.g. zip, gz, docx, odt) against maximum allowed uncompressed size and against maximum number of files before uncompressing the file. </t>
   </si>
   <si>
+    <t>The application only accepts .csv files</t>
+  </si>
+  <si>
     <t>12.1.3</t>
   </si>
   <si>
@@ -1956,12 +2247,18 @@
     <t>Verify that user-submitted filename metadata is not used directly by system or framework filesystems and that a URL API is used to protect against path traversal.</t>
   </si>
   <si>
+    <t>The filename won't be used for anything</t>
+  </si>
+  <si>
     <t>12.3.2</t>
   </si>
   <si>
     <t>Verify that user-submitted filename metadata is validated or ignored to prevent the disclosure, creation, updating or removal of local files (LFI).</t>
   </si>
   <si>
+    <t>It is ignored</t>
+  </si>
+  <si>
     <t>12.3.3</t>
   </si>
   <si>
@@ -1980,6 +2277,9 @@
     <t>Verify that untrusted file metadata is not used directly with system API or libraries, to protect against OS command injection.</t>
   </si>
   <si>
+    <t>None of the file metadata is used other than the content itself. The extension is the only one checked in order to see if it's a .csv or not</t>
+  </si>
+  <si>
     <t>12.3.6</t>
   </si>
   <si>
@@ -1995,6 +2295,9 @@
     <t>Verify that files obtained from untrusted sources are stored outside the web root, with limited permissions.</t>
   </si>
   <si>
+    <t>The application won't store uploaded files anywhere</t>
+  </si>
+  <si>
     <t>12.4.2</t>
   </si>
   <si>
@@ -2010,12 +2313,18 @@
     <t>Verify that the web tier is configured to serve only files with specific file extensions to prevent unintentional information and source code leakage. For example, backup files (e.g. .bak), temporary working files (e.g. .swp), compressed files (.zip, .tar.gz, etc) and other extensions commonly used by editors should be blocked unless required.</t>
   </si>
   <si>
+    <t>The frontend only serves html, css and javascript files to the browser of the user</t>
+  </si>
+  <si>
     <t>12.5.2</t>
   </si>
   <si>
     <t>Verify that direct requests to uploaded files will never be executed as HTML/JavaScript content.</t>
   </si>
   <si>
+    <t>The user won't access uploaded files. They only serve the purpose of storing data on the database</t>
+  </si>
+  <si>
     <t>SSRF Protection</t>
   </si>
   <si>
@@ -2058,6 +2367,9 @@
     <t>Verify that requests containing unexpected or missing content types are rejected with appropriate headers (HTTP response status 406 Unacceptable or 415 Unsupported Media Type).</t>
   </si>
   <si>
+    <t>The API returns a 500 error code when any error occurs</t>
+  </si>
+  <si>
     <t>RESTful Web Service</t>
   </si>
   <si>
@@ -2067,6 +2379,9 @@
     <t>Verify that enabled RESTful HTTP methods are a valid choice for the user or action, such as preventing normal users using DELETE or PUT on protected API or resources.</t>
   </si>
   <si>
+    <t>Roles are yet to be implemented, but there aren't APIs implemented to change resources that the clients shouldn't change</t>
+  </si>
+  <si>
     <t>13.2.2</t>
   </si>
   <si>
@@ -2079,6 +2394,77 @@
     <t>Verify that RESTful web services that utilize cookies are protected from Cross-Site Request Forgery via the use of at least one or more of the following: double submit cookie pattern, CSRF nonces, or Origin request header checks.</t>
   </si>
   <si>
+    <r>
+      <t>response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFB392F0"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>setHeader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFAB70"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Access-Control-Allow-Origin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFAB70"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="CaskaydiaCove NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Althought it utilizes the Origin Request header check, it accepts all origins (*)</t>
+  </si>
+  <si>
     <t>13.2.4</t>
   </si>
   <si>
@@ -2091,12 +2477,18 @@
     <t>Verify that REST services explicitly check the incoming Content-Type to be the expected one, such as application/xml or application/json.</t>
   </si>
   <si>
+    <t>The REST services should use the consumes attribute on each mapping</t>
+  </si>
+  <si>
     <t>13.2.6</t>
   </si>
   <si>
     <t>Verify that the message headers and payload are trustworthy and not modified in transit. Requiring strong encryption for transport (TLS only) may be sufficient in many cases as it provides both confidentiality and integrity protection. Per-message digital signatures can provide additional assurance on top of the transport protections for high-security applications but bring with them additional complexity and risks to weigh against the benefits.</t>
   </si>
   <si>
+    <t>The protocol being used is HTTP which is unsafe and unencrypted</t>
+  </si>
+  <si>
     <t>SOAP Web Service</t>
   </si>
   <si>
@@ -2106,6 +2498,9 @@
     <t>Verify that XSD schema validation takes place to ensure a properly formed XML document, followed by validation of each input field before any processing of that data takes place.</t>
   </si>
   <si>
+    <t>XML isn't being used in this project</t>
+  </si>
+  <si>
     <t>13.3.2</t>
   </si>
   <si>
@@ -2127,6 +2522,9 @@
     <t>Verify that GraphQL or other data layer authorization logic should be implemented at the business logic layer instead of the GraphQL layer.</t>
   </si>
   <si>
+    <t>GraphQL isn't used</t>
+  </si>
+  <si>
     <t>Build and Deploy</t>
   </si>
   <si>
@@ -2154,6 +2552,11 @@
     <t>Verify that the application, configuration, and all dependencies can be re-deployed using automated deployment scripts, built from a documented and tested runbook in a reasonable time, or restored from backups in a timely fashion.</t>
   </si>
   <si>
+    <t>Build and push resource_server
+Build and push authorization_server
+Build and push client application</t>
+  </si>
+  <si>
     <t>14.1.5</t>
   </si>
   <si>
@@ -2229,6 +2632,9 @@
     <t>Verify that every HTTP response contains a Content-Type header. Also specify a safe character set (e.g., UTF-8, ISO-8859-1) if the content types are text/*, /+xml and application/xml. Content must match with the provided Content-Type header.</t>
   </si>
   <si>
+    <t>text/*, /+xml and application/xml content types are not used</t>
+  </si>
+  <si>
     <t>14.4.2</t>
   </si>
   <si>
@@ -2286,10 +2692,16 @@
     <t>Verify that the Cross-Origin Resource Sharing (CORS) Access-Control-Allow-Origin header uses a strict allow list of trusted domains and subdomains to match against and does not support the "null" origin.</t>
   </si>
   <si>
+    <t>response.setHeader("Access-Control-Allow-Origin", "*");</t>
+  </si>
+  <si>
     <t>14.5.4</t>
   </si>
   <si>
     <t>Verify that HTTP headers added by a trusted proxy or SSO devices, such as a bearer token, are authenticated by the application.</t>
+  </si>
+  <si>
+    <t>token.interceptor.ts</t>
   </si>
 </sst>
 </file>
@@ -2299,7 +2711,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00,_€;\-#,##0.00,_€"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2420,8 +2832,56 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="CaskaydiaCove NF"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFB392F0"/>
+      <name val="CaskaydiaCove NF"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF79B8FF"/>
+      <name val="CaskaydiaCove NF"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFFAB70"/>
+      <name val="CaskaydiaCove NF"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF97583"/>
+      <name val="CaskaydiaCove NF"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF8F8F8"/>
+      <name val="CaskaydiaCove NF"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2470,8 +2930,32 @@
         <bgColor rgb="FFF0F4F8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -3102,11 +3586,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF243B53"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBCCCDC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF243B53"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBCCCDC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBCCCDC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBCCCDC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBCCCDC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF243B53"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBCCCDC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3367,12 +3906,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3500,6 +4033,67 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3509,6 +4103,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3771,46 +4395,46 @@
                   <c:v>68.181818181818173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7543859649122806</c:v>
+                  <c:v>46.153846153846153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>57.894736842105267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>22.222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23.076923076923077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>33.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>33.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>83.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>40.909090909090914</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1302681992337158</c:v>
+                  <c:v>40.465116279069768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4345,7 +4969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4400,15 +5024,15 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
-        <v>1.7543859649122806</v>
+        <v>46.153846153846153</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -4418,15 +5042,15 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIF('Session Management'!G2:G21,"Valid")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10">
         <f>COUNTIF('Session Management'!G2:G21,"&lt;&gt;Not Applicable")</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.894736842105267</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -4436,15 +5060,15 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10">
         <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E5" s="12"/>
     </row>
@@ -4454,15 +5078,15 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"Valid")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"&lt;&gt;Not Applicable")</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -4472,15 +5096,15 @@
       </c>
       <c r="B7" s="9">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"Valid")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="10">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"&lt;&gt;Not Applicable")</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="14"/>
@@ -4491,15 +5115,15 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="10">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -4509,15 +5133,15 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="10">
         <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -4531,7 +5155,7 @@
       </c>
       <c r="C10" s="10">
         <f>COUNTIF(Communication!G2:G9,"&lt;&gt;Not Applicable")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -4545,15 +5169,15 @@
       </c>
       <c r="B11" s="9">
         <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10">
         <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="E11" s="12"/>
     </row>
@@ -4563,7 +5187,7 @@
       </c>
       <c r="B12" s="9">
         <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10">
         <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4571,7 +5195,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E12" s="12"/>
     </row>
@@ -4581,15 +5205,15 @@
       </c>
       <c r="B13" s="9">
         <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10">
         <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="E13" s="12"/>
     </row>
@@ -4599,15 +5223,15 @@
       </c>
       <c r="B14" s="9">
         <f>COUNTIF('API and Web Service'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="10">
         <f>COUNTIF('API and Web Service'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E14" s="12"/>
     </row>
@@ -4617,15 +5241,15 @@
       </c>
       <c r="B15" s="9">
         <f>COUNTIF(Configuration!G2:G26,"Valid")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C15" s="10">
         <f>COUNTIF(Configuration!G2:G26,"&lt;&gt;Not Applicable")</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40.909090909090914</v>
       </c>
       <c r="E15" s="12"/>
     </row>
@@ -4635,15 +5259,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>6.1302681992337158</v>
+        <v>40.465116279069768</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -4662,8 +5286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+    <sheetView topLeftCell="E1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -4672,7 +5296,7 @@
     <col min="2" max="2" width="8.85546875" style="24"/>
     <col min="3" max="5" width="8.85546875" style="57"/>
     <col min="6" max="6" width="88.85546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="24"/>
+    <col min="7" max="7" width="14.42578125" style="24" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="26.28515625" style="24" customWidth="1"/>
     <col min="10" max="10" width="37.7109375" style="24" customWidth="1"/>
@@ -4712,11 +5336,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="150" t="s">
-        <v>551</v>
+      <c r="A2" s="177" t="s">
+        <v>607</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -4726,17 +5350,21 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>553</v>
-      </c>
-      <c r="G2" s="48"/>
+        <v>609</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>65</v>
+      </c>
       <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="I2" s="49" t="s">
+        <v>610</v>
+      </c>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="31.5">
-      <c r="A3" s="150"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="60" t="s">
-        <v>554</v>
+        <v>611</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -4746,17 +5374,19 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>555</v>
-      </c>
-      <c r="G3" s="27"/>
+        <v>612</v>
+      </c>
+      <c r="G3" s="157" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="150"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="60" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -4766,19 +5396,23 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>557</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>614</v>
+      </c>
+      <c r="G4" s="157" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="I4" s="27" t="s">
+        <v>615</v>
+      </c>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A5" s="150" t="s">
-        <v>558</v>
+      <c r="A5" s="177" t="s">
+        <v>616</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -4788,17 +5422,21 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>560</v>
-      </c>
-      <c r="G5" s="27"/>
+        <v>618</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="I5" s="27" t="s">
+        <v>615</v>
+      </c>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="63">
-      <c r="A6" s="150"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="60" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="C6" s="66">
         <v>2</v>
@@ -4808,17 +5446,21 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>562</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>620</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="27" t="s">
+        <v>615</v>
+      </c>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="31.5">
-      <c r="A7" s="150"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="60" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="C7" s="66">
         <v>2</v>
@@ -4828,17 +5470,21 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>564</v>
-      </c>
-      <c r="G7" s="27"/>
+        <v>622</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="27" t="s">
+        <v>615</v>
+      </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="31.5">
-      <c r="A8" s="150"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="60" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="C8" s="66">
         <v>2</v>
@@ -4848,17 +5494,19 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>566</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>624</v>
+      </c>
+      <c r="G8" s="157" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="150"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="60" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="C9" s="93">
         <v>3</v>
@@ -4868,9 +5516,11 @@
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="79" t="s">
-        <v>568</v>
-      </c>
-      <c r="G9" s="34"/>
+        <v>626</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="36"/>
@@ -4950,10 +5600,10 @@
     </row>
     <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="1" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="C2" s="95">
         <v>3</v>
@@ -4963,19 +5613,23 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>571</v>
-      </c>
-      <c r="G2" s="48"/>
+        <v>629</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>65</v>
+      </c>
       <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="I2" s="49" t="s">
+        <v>630</v>
+      </c>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="150" t="s">
-        <v>572</v>
+      <c r="A3" s="177" t="s">
+        <v>631</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>573</v>
+        <v>632</v>
       </c>
       <c r="C3" s="66">
         <v>2</v>
@@ -4985,17 +5639,21 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>574</v>
-      </c>
-      <c r="G3" s="27"/>
+        <v>633</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="I3" s="27" t="s">
+        <v>634</v>
+      </c>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="150"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="60" t="s">
-        <v>575</v>
+        <v>635</v>
       </c>
       <c r="C4" s="66">
         <v>2</v>
@@ -5005,17 +5663,19 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>576</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>636</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="78.75">
-      <c r="A5" s="150"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="60" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="C5" s="67">
         <v>3</v>
@@ -5025,17 +5685,21 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>578</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+        <v>638</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="167"/>
+      <c r="I5" s="29" t="s">
+        <v>639</v>
+      </c>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="31.5">
-      <c r="A6" s="150"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="60" t="s">
-        <v>579</v>
+        <v>640</v>
       </c>
       <c r="C6" s="67">
         <v>3</v>
@@ -5045,17 +5709,21 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>580</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>641</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="29" t="s">
+        <v>642</v>
+      </c>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="31.5">
-      <c r="A7" s="150"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="60" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="C7" s="67">
         <v>3</v>
@@ -5065,17 +5733,17 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>582</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+        <v>644</v>
+      </c>
+      <c r="G7" s="168"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="31.5">
-      <c r="A8" s="150"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="60" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="C8" s="67">
         <v>3</v>
@@ -5085,19 +5753,19 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>584</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>646</v>
+      </c>
+      <c r="G8" s="157"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" s="150" t="s">
-        <v>585</v>
+      <c r="A9" s="177" t="s">
+        <v>647</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -5107,17 +5775,19 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>587</v>
-      </c>
-      <c r="G9" s="27"/>
+        <v>649</v>
+      </c>
+      <c r="G9" s="157" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="63">
-      <c r="A10" s="150"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="60" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -5127,17 +5797,19 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>589</v>
-      </c>
-      <c r="G10" s="27"/>
+        <v>651</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="94.5">
-      <c r="A11" s="150"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="60" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="C11" s="68">
         <v>1</v>
@@ -5147,9 +5819,9 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="79" t="s">
-        <v>591</v>
-      </c>
-      <c r="G11" s="34"/>
+        <v>653</v>
+      </c>
+      <c r="G11" s="165"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="36"/>
@@ -5178,7 +5850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5228,11 +5900,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="150" t="s">
-        <v>592</v>
+      <c r="A2" s="177" t="s">
+        <v>654</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>593</v>
+        <v>655</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -5242,17 +5914,19 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>594</v>
-      </c>
-      <c r="G2" s="48"/>
+        <v>656</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>65</v>
+      </c>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="47.25">
-      <c r="A3" s="150"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="60" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -5262,17 +5936,21 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>596</v>
-      </c>
-      <c r="G3" s="27"/>
+        <v>658</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="I3" s="29" t="s">
+        <v>659</v>
+      </c>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="150"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="60" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -5282,17 +5960,21 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>598</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>661</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="I4" s="156" t="s">
+        <v>659</v>
+      </c>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="47.25">
-      <c r="A5" s="150"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="60" t="s">
-        <v>599</v>
+        <v>662</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -5302,17 +5984,21 @@
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="78" t="s">
-        <v>600</v>
-      </c>
-      <c r="G5" s="27"/>
+        <v>663</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="I5" s="156" t="s">
+        <v>659</v>
+      </c>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="47.25">
-      <c r="A6" s="150"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="60" t="s">
-        <v>601</v>
+        <v>664</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -5322,17 +6008,19 @@
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="78" t="s">
-        <v>602</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>665</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="A7" s="150"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="60" t="s">
-        <v>603</v>
+        <v>666</v>
       </c>
       <c r="C7" s="66">
         <v>2</v>
@@ -5342,17 +6030,19 @@
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="78" t="s">
-        <v>604</v>
-      </c>
-      <c r="G7" s="27"/>
+        <v>667</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A8" s="150"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="60" t="s">
-        <v>605</v>
+        <v>668</v>
       </c>
       <c r="C8" s="66">
         <v>2</v>
@@ -5362,17 +6052,19 @@
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="78" t="s">
-        <v>606</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>669</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="31.5">
-      <c r="A9" s="150"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="60" t="s">
-        <v>607</v>
+        <v>670</v>
       </c>
       <c r="C9" s="76">
         <v>2</v>
@@ -5382,9 +6074,11 @@
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="79" t="s">
-        <v>608</v>
-      </c>
-      <c r="G9" s="34"/>
+        <v>671</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="36"/>
@@ -5412,8 +6106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -5461,12 +6155,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="150" t="s">
-        <v>609</v>
+    <row r="2" spans="1:10" ht="56.1" customHeight="1">
+      <c r="A2" s="177" t="s">
+        <v>672</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>610</v>
+        <v>673</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -5476,17 +6170,19 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>611</v>
-      </c>
-      <c r="G2" s="48"/>
+        <v>674</v>
+      </c>
+      <c r="G2" s="163" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="47.25">
-      <c r="A3" s="150"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="60" t="s">
-        <v>612</v>
+        <v>675</v>
       </c>
       <c r="C3" s="66">
         <v>2</v>
@@ -5496,17 +6192,21 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>613</v>
-      </c>
-      <c r="G3" s="27"/>
+        <v>676</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="I3" s="29" t="s">
+        <v>677</v>
+      </c>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="47.25">
-      <c r="A4" s="150"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="60" t="s">
-        <v>614</v>
+        <v>678</v>
       </c>
       <c r="C4" s="66">
         <v>2</v>
@@ -5516,19 +6216,21 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>615</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>679</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="31.5">
       <c r="A5" s="1" t="s">
-        <v>616</v>
+        <v>680</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>617</v>
+        <v>681</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -5538,19 +6240,21 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>618</v>
-      </c>
-      <c r="G5" s="27"/>
+        <v>682</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="150" t="s">
-        <v>619</v>
+      <c r="A6" s="177" t="s">
+        <v>683</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>620</v>
+        <v>684</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -5560,17 +6264,21 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>621</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>685</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="29" t="s">
+        <v>686</v>
+      </c>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="31.5">
-      <c r="A7" s="150"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="60" t="s">
-        <v>622</v>
+        <v>687</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -5580,17 +6288,21 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>623</v>
-      </c>
-      <c r="G7" s="27"/>
+        <v>688</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="27" t="s">
+        <v>689</v>
+      </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="47.25">
-      <c r="A8" s="150"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="60" t="s">
-        <v>624</v>
+        <v>690</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -5600,17 +6312,21 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>625</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>691</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="I8" s="27" t="s">
+        <v>689</v>
+      </c>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="63">
-      <c r="A9" s="150"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="60" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -5620,17 +6336,21 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>627</v>
-      </c>
-      <c r="G9" s="27"/>
+        <v>693</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="I9" s="27" t="s">
+        <v>689</v>
+      </c>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="150"/>
+    <row r="10" spans="1:10" ht="94.5">
+      <c r="A10" s="177"/>
       <c r="B10" s="60" t="s">
-        <v>628</v>
+        <v>694</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -5640,17 +6360,21 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>629</v>
-      </c>
-      <c r="G10" s="27"/>
+        <v>695</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="29" t="s">
+        <v>696</v>
+      </c>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="47.25">
-      <c r="A11" s="150"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="60" t="s">
-        <v>630</v>
+        <v>697</v>
       </c>
       <c r="C11" s="66">
         <v>2</v>
@@ -5660,19 +6384,21 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="78" t="s">
-        <v>631</v>
-      </c>
-      <c r="G11" s="27"/>
+        <v>698</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A12" s="150" t="s">
-        <v>632</v>
+      <c r="A12" s="177" t="s">
+        <v>699</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>633</v>
+        <v>700</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -5682,17 +6408,21 @@
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="78" t="s">
-        <v>634</v>
-      </c>
-      <c r="G12" s="27"/>
+        <v>701</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="I12" s="29" t="s">
+        <v>702</v>
+      </c>
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="31.5">
-      <c r="A13" s="150"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="60" t="s">
-        <v>635</v>
+        <v>703</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
@@ -5702,19 +6432,19 @@
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="78" t="s">
-        <v>636</v>
-      </c>
-      <c r="G13" s="27"/>
+        <v>704</v>
+      </c>
+      <c r="G13" s="157"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A14" s="150" t="s">
-        <v>637</v>
+      <c r="A14" s="177" t="s">
+        <v>705</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -5724,17 +6454,21 @@
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="78" t="s">
-        <v>639</v>
-      </c>
-      <c r="G14" s="27"/>
+        <v>707</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="I14" s="29" t="s">
+        <v>708</v>
+      </c>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" ht="31.5">
-      <c r="A15" s="150"/>
+    <row r="15" spans="1:10" ht="78.75">
+      <c r="A15" s="177"/>
       <c r="B15" s="60" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="C15" s="64">
         <v>1</v>
@@ -5744,19 +6478,23 @@
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="78" t="s">
-        <v>641</v>
-      </c>
-      <c r="G15" s="27"/>
+        <v>710</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="29" t="s">
+        <v>711</v>
+      </c>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="47.25">
       <c r="A16" s="1" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="C16" s="68">
         <v>1</v>
@@ -5766,9 +6504,9 @@
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="79" t="s">
-        <v>644</v>
-      </c>
-      <c r="G16" s="34"/>
+        <v>714</v>
+      </c>
+      <c r="G16" s="165"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
       <c r="J16" s="36"/>
@@ -5799,8 +6537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="F1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -5848,11 +6586,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="150" t="s">
-        <v>645</v>
+      <c r="A2" s="177" t="s">
+        <v>715</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -5862,17 +6600,17 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>647</v>
-      </c>
-      <c r="G2" s="48"/>
+        <v>717</v>
+      </c>
+      <c r="G2" s="158"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="150"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="60" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -5882,7 +6620,7 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>33</v>
@@ -5892,9 +6630,9 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="150"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="60" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -5904,17 +6642,19 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>651</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>721</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="47.25">
-      <c r="A5" s="150"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="60" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -5924,17 +6664,17 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>653</v>
-      </c>
-      <c r="G5" s="27"/>
+        <v>723</v>
+      </c>
+      <c r="G5" s="157"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:10" ht="47.25">
-      <c r="A6" s="150"/>
+    <row r="6" spans="1:10" ht="47.45" customHeight="1">
+      <c r="A6" s="177"/>
       <c r="B6" s="60" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
       <c r="C6" s="66">
         <v>2</v>
@@ -5944,19 +6684,23 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>655</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>725</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="29" t="s">
+        <v>726</v>
+      </c>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A7" s="150" t="s">
-        <v>656</v>
+    <row r="7" spans="1:10" ht="104.45" customHeight="1">
+      <c r="A7" s="177" t="s">
+        <v>727</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>657</v>
+        <v>728</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -5966,17 +6710,21 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>658</v>
-      </c>
-      <c r="G7" s="27"/>
+        <v>729</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="29" t="s">
+        <v>730</v>
+      </c>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="150"/>
+    <row r="8" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A8" s="177"/>
       <c r="B8" s="60" t="s">
-        <v>659</v>
+        <v>731</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -5986,17 +6734,17 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>660</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>732</v>
+      </c>
+      <c r="G8" s="157"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" ht="47.25">
-      <c r="A9" s="150"/>
+    <row r="9" spans="1:10" ht="48" thickBot="1">
+      <c r="A9" s="177"/>
       <c r="B9" s="60" t="s">
-        <v>661</v>
+        <v>733</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -6006,17 +6754,23 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+        <v>734</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="155" t="s">
+        <v>735</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>736</v>
+      </c>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="150"/>
+    <row r="10" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A10" s="177"/>
       <c r="B10" s="60" t="s">
-        <v>663</v>
+        <v>737</v>
       </c>
       <c r="C10" s="66">
         <v>2</v>
@@ -6026,7 +6780,7 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>664</v>
+        <v>738</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>33</v>
@@ -6035,10 +6789,10 @@
       <c r="I10" s="27"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:10" ht="31.5">
-      <c r="A11" s="150"/>
+    <row r="11" spans="1:10" ht="63.75" thickBot="1">
+      <c r="A11" s="177"/>
       <c r="B11" s="60" t="s">
-        <v>665</v>
+        <v>739</v>
       </c>
       <c r="C11" s="66">
         <v>2</v>
@@ -6048,17 +6802,21 @@
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="78" t="s">
-        <v>666</v>
-      </c>
-      <c r="G11" s="27"/>
+        <v>740</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="29" t="s">
+        <v>741</v>
+      </c>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" ht="94.5">
-      <c r="A12" s="150"/>
+    <row r="12" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A12" s="177"/>
       <c r="B12" s="60" t="s">
-        <v>667</v>
+        <v>742</v>
       </c>
       <c r="C12" s="66">
         <v>2</v>
@@ -6068,19 +6826,23 @@
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="78" t="s">
-        <v>668</v>
-      </c>
-      <c r="G12" s="27"/>
+        <v>743</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="I12" s="29" t="s">
+        <v>744</v>
+      </c>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="150" t="s">
-        <v>669</v>
+    <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A13" s="177" t="s">
+        <v>745</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
@@ -6090,17 +6852,21 @@
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="78" t="s">
-        <v>671</v>
-      </c>
-      <c r="G13" s="27"/>
+        <v>747</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="I13" s="29" t="s">
+        <v>748</v>
+      </c>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" ht="31.5">
-      <c r="A14" s="150"/>
+    <row r="14" spans="1:10" ht="32.25" thickBot="1">
+      <c r="A14" s="177"/>
       <c r="B14" s="60" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="C14" s="66">
         <v>2</v>
@@ -6110,19 +6876,21 @@
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="78" t="s">
-        <v>673</v>
-      </c>
-      <c r="G14" s="27"/>
+        <v>750</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="150" t="s">
-        <v>674</v>
+      <c r="A15" s="177" t="s">
+        <v>751</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="C15" s="66">
         <v>2</v>
@@ -6132,17 +6900,19 @@
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="78" t="s">
-        <v>676</v>
-      </c>
-      <c r="G15" s="27"/>
+        <v>753</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="31.5">
-      <c r="A16" s="150"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="60" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="C16" s="76">
         <v>2</v>
@@ -6152,11 +6922,15 @@
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="79" t="s">
-        <v>678</v>
-      </c>
-      <c r="G16" s="34"/>
+        <v>755</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="34" t="s">
+        <v>756</v>
+      </c>
       <c r="J16" s="36"/>
     </row>
   </sheetData>
@@ -6167,7 +6941,7 @@
     <mergeCell ref="A15:A16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G16" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G13:G16 G2:G11" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6185,8 +6959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -6197,12 +6971,12 @@
     <col min="6" max="6" width="88.7109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="24" customWidth="1"/>
     <col min="8" max="8" width="35.28515625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="24" customWidth="1"/>
     <col min="10" max="10" width="33.42578125" style="24" customWidth="1"/>
     <col min="11" max="1024" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="42" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="42" customFormat="1" ht="41.25">
       <c r="A1" s="96" t="s">
         <v>20</v>
       </c>
@@ -6235,508 +7009,566 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="151" t="s">
-        <v>679</v>
+      <c r="A2" s="178" t="s">
+        <v>757</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="C2" s="98">
         <v>2</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101" t="s">
-        <v>681</v>
-      </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-    </row>
-    <row r="3" spans="1:10" ht="47.25">
-      <c r="A3" s="151"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="99" t="s">
+        <v>759</v>
+      </c>
+      <c r="G2" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="100"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="101"/>
+    </row>
+    <row r="3" spans="1:10" ht="48.75">
+      <c r="A3" s="178"/>
       <c r="B3" s="60" t="s">
-        <v>682</v>
-      </c>
-      <c r="C3" s="104">
-        <v>2</v>
-      </c>
-      <c r="D3" s="105">
+        <v>760</v>
+      </c>
+      <c r="C3" s="102">
+        <v>2</v>
+      </c>
+      <c r="D3" s="182">
         <v>120</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107" t="s">
-        <v>683</v>
-      </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="105" t="s">
+        <v>761</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="151"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="60" t="s">
-        <v>684</v>
-      </c>
-      <c r="C4" s="104">
-        <v>2</v>
-      </c>
-      <c r="D4" s="105">
+        <v>762</v>
+      </c>
+      <c r="C4" s="102">
+        <v>2</v>
+      </c>
+      <c r="D4" s="103">
         <v>16</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107" t="s">
-        <v>685</v>
-      </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="109"/>
-    </row>
-    <row r="5" spans="1:10" ht="47.25">
-      <c r="A5" s="151"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105" t="s">
+        <v>763</v>
+      </c>
+      <c r="G4" s="181" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="96.75">
+      <c r="A5" s="178"/>
       <c r="B5" s="60" t="s">
-        <v>686</v>
-      </c>
-      <c r="C5" s="104">
-        <v>2</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107" t="s">
-        <v>687</v>
-      </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
-    </row>
-    <row r="6" spans="1:10" ht="31.5">
-      <c r="A6" s="151"/>
+        <v>764</v>
+      </c>
+      <c r="C5" s="102">
+        <v>2</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="105" t="s">
+        <v>765</v>
+      </c>
+      <c r="G5" s="181" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186" t="s">
+        <v>766</v>
+      </c>
+      <c r="J5" s="107"/>
+    </row>
+    <row r="6" spans="1:10" ht="32.25">
+      <c r="A6" s="178"/>
       <c r="B6" s="60" t="s">
-        <v>688</v>
-      </c>
-      <c r="C6" s="110">
+        <v>767</v>
+      </c>
+      <c r="C6" s="108">
         <v>3</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107" t="s">
-        <v>689</v>
-      </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="109"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105" t="s">
+        <v>768</v>
+      </c>
+      <c r="G6" s="187" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
-      <c r="A7" s="150" t="s">
-        <v>690</v>
+      <c r="A7" s="177" t="s">
+        <v>769</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>691</v>
-      </c>
-      <c r="C7" s="111">
+        <v>770</v>
+      </c>
+      <c r="C7" s="109">
         <v>1</v>
       </c>
-      <c r="D7" s="105">
+      <c r="D7" s="103">
         <v>1026</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107" t="s">
-        <v>692</v>
-      </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="109"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="105" t="s">
+        <v>771</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="107"/>
     </row>
     <row r="8" spans="1:10" ht="31.5">
-      <c r="A8" s="150"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="60" t="s">
-        <v>693</v>
-      </c>
-      <c r="C8" s="111">
+        <v>772</v>
+      </c>
+      <c r="C8" s="109">
         <v>1</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="103">
         <v>1002</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107" t="s">
-        <v>694</v>
-      </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105" t="s">
+        <v>773</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="107"/>
     </row>
     <row r="9" spans="1:10" ht="47.25">
-      <c r="A9" s="150"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="60" t="s">
-        <v>695</v>
-      </c>
-      <c r="C9" s="111">
+        <v>774</v>
+      </c>
+      <c r="C9" s="109">
         <v>1</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="103">
         <v>829</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107" t="s">
-        <v>696</v>
-      </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="109"/>
-    </row>
-    <row r="10" spans="1:10" ht="47.25">
-      <c r="A10" s="150"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105" t="s">
+        <v>775</v>
+      </c>
+      <c r="G9" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="170"/>
+    </row>
+    <row r="10" spans="1:10" ht="32.25">
+      <c r="A10" s="177"/>
       <c r="B10" s="60" t="s">
-        <v>697</v>
-      </c>
-      <c r="C10" s="104">
-        <v>2</v>
-      </c>
-      <c r="D10" s="105">
+        <v>776</v>
+      </c>
+      <c r="C10" s="102">
+        <v>2</v>
+      </c>
+      <c r="D10" s="103">
         <v>829</v>
       </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107" t="s">
-        <v>698</v>
-      </c>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="105" t="s">
+        <v>777</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="170" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="31.5">
-      <c r="A11" s="150"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="60" t="s">
-        <v>699</v>
-      </c>
-      <c r="C11" s="104">
-        <v>2</v>
-      </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107" t="s">
-        <v>700</v>
-      </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="109"/>
+        <v>778</v>
+      </c>
+      <c r="C11" s="102">
+        <v>2</v>
+      </c>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105" t="s">
+        <v>779</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="1:10" ht="47.25">
-      <c r="A12" s="150"/>
+      <c r="A12" s="177"/>
       <c r="B12" s="60" t="s">
-        <v>701</v>
-      </c>
-      <c r="C12" s="104">
-        <v>2</v>
-      </c>
-      <c r="D12" s="105">
+        <v>780</v>
+      </c>
+      <c r="C12" s="102">
+        <v>2</v>
+      </c>
+      <c r="D12" s="103">
         <v>265</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107" t="s">
-        <v>702</v>
-      </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105" t="s">
+        <v>781</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="150" t="s">
-        <v>703</v>
+      <c r="A13" s="177" t="s">
+        <v>782</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>704</v>
-      </c>
-      <c r="C13" s="111">
+        <v>783</v>
+      </c>
+      <c r="C13" s="109">
         <v>1</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="103">
         <v>209</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107" t="s">
-        <v>705</v>
-      </c>
-      <c r="G13" s="108" t="s">
+      <c r="E13" s="104"/>
+      <c r="F13" s="105" t="s">
+        <v>784</v>
+      </c>
+      <c r="G13" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="109"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
     </row>
     <row r="14" spans="1:10" ht="47.25">
-      <c r="A14" s="150"/>
+      <c r="A14" s="177"/>
       <c r="B14" s="60" t="s">
-        <v>706</v>
-      </c>
-      <c r="C14" s="111">
+        <v>785</v>
+      </c>
+      <c r="C14" s="109">
         <v>1</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="103">
         <v>497</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107" t="s">
-        <v>707</v>
-      </c>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="109"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105" t="s">
+        <v>786</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="107"/>
     </row>
     <row r="15" spans="1:10" ht="31.5">
-      <c r="A15" s="150"/>
+      <c r="A15" s="177"/>
       <c r="B15" s="60" t="s">
-        <v>708</v>
-      </c>
-      <c r="C15" s="111">
+        <v>787</v>
+      </c>
+      <c r="C15" s="109">
         <v>1</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="103">
         <v>200</v>
       </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107" t="s">
-        <v>709</v>
-      </c>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="109"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105" t="s">
+        <v>788</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="150" t="s">
-        <v>710</v>
+      <c r="A16" s="177" t="s">
+        <v>789</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>711</v>
-      </c>
-      <c r="C16" s="111">
+        <v>790</v>
+      </c>
+      <c r="C16" s="109">
         <v>1</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="103">
         <v>173</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="107" t="s">
-        <v>712</v>
-      </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="109"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="105" t="s">
+        <v>791</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="188" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="31.5">
-      <c r="A17" s="150"/>
+      <c r="A17" s="177"/>
       <c r="B17" s="60" t="s">
-        <v>713</v>
-      </c>
-      <c r="C17" s="111">
+        <v>793</v>
+      </c>
+      <c r="C17" s="109">
         <v>1</v>
       </c>
-      <c r="D17" s="105">
+      <c r="D17" s="103">
         <v>116</v>
       </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="107" t="s">
-        <v>714</v>
-      </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105" t="s">
+        <v>794</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
     </row>
     <row r="18" spans="1:10" ht="31.5">
-      <c r="A18" s="150"/>
+      <c r="A18" s="177"/>
       <c r="B18" s="60" t="s">
-        <v>715</v>
-      </c>
-      <c r="C18" s="111">
+        <v>795</v>
+      </c>
+      <c r="C18" s="109">
         <v>1</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="103">
         <v>1021</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="107" t="s">
-        <v>716</v>
-      </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105" t="s">
+        <v>796</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="150"/>
+      <c r="A19" s="177"/>
       <c r="B19" s="60" t="s">
-        <v>717</v>
-      </c>
-      <c r="C19" s="111">
+        <v>797</v>
+      </c>
+      <c r="C19" s="109">
         <v>1</v>
       </c>
-      <c r="D19" s="105">
+      <c r="D19" s="103">
         <v>116</v>
       </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="107" t="s">
-        <v>718</v>
-      </c>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105" t="s">
+        <v>798</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="107"/>
     </row>
     <row r="20" spans="1:10" ht="31.5">
-      <c r="A20" s="150"/>
+      <c r="A20" s="177"/>
       <c r="B20" s="60" t="s">
-        <v>719</v>
-      </c>
-      <c r="C20" s="111">
+        <v>799</v>
+      </c>
+      <c r="C20" s="109">
         <v>1</v>
       </c>
-      <c r="D20" s="105">
+      <c r="D20" s="103">
         <v>523</v>
       </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="107" t="s">
-        <v>720</v>
-      </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105" t="s">
+        <v>800</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
     </row>
     <row r="21" spans="1:10" ht="31.5">
-      <c r="A21" s="150"/>
+      <c r="A21" s="177"/>
       <c r="B21" s="60" t="s">
-        <v>721</v>
-      </c>
-      <c r="C21" s="111">
+        <v>801</v>
+      </c>
+      <c r="C21" s="109">
         <v>1</v>
       </c>
-      <c r="D21" s="105">
+      <c r="D21" s="103">
         <v>116</v>
       </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="107" t="s">
-        <v>722</v>
-      </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105" t="s">
+        <v>802</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
     </row>
     <row r="22" spans="1:10" ht="63">
-      <c r="A22" s="150"/>
+      <c r="A22" s="177"/>
       <c r="B22" s="60" t="s">
-        <v>723</v>
-      </c>
-      <c r="C22" s="111">
+        <v>803</v>
+      </c>
+      <c r="C22" s="109">
         <v>1</v>
       </c>
-      <c r="D22" s="105">
+      <c r="D22" s="103">
         <v>1021</v>
       </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107" t="s">
-        <v>724</v>
-      </c>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105" t="s">
+        <v>804</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
-      <c r="A23" s="150" t="s">
-        <v>725</v>
+      <c r="A23" s="177" t="s">
+        <v>805</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>726</v>
-      </c>
-      <c r="C23" s="111">
+        <v>806</v>
+      </c>
+      <c r="C23" s="109">
         <v>1</v>
       </c>
-      <c r="D23" s="105">
+      <c r="D23" s="103">
         <v>749</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="107" t="s">
-        <v>727</v>
-      </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105" t="s">
+        <v>807</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="107"/>
     </row>
     <row r="24" spans="1:10" ht="31.5">
-      <c r="A24" s="150"/>
+      <c r="A24" s="177"/>
       <c r="B24" s="60" t="s">
-        <v>728</v>
-      </c>
-      <c r="C24" s="111">
+        <v>808</v>
+      </c>
+      <c r="C24" s="109">
         <v>1</v>
       </c>
-      <c r="D24" s="105">
+      <c r="D24" s="103">
         <v>346</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107" t="s">
-        <v>729</v>
-      </c>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105" t="s">
+        <v>809</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
     </row>
     <row r="25" spans="1:10" ht="47.25">
-      <c r="A25" s="150"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="60" t="s">
-        <v>730</v>
-      </c>
-      <c r="C25" s="111">
+        <v>810</v>
+      </c>
+      <c r="C25" s="109">
         <v>1</v>
       </c>
-      <c r="D25" s="105">
+      <c r="D25" s="103">
         <v>346</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="107" t="s">
-        <v>731</v>
-      </c>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105" t="s">
+        <v>811</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
     </row>
     <row r="26" spans="1:10" ht="31.5">
-      <c r="A26" s="150"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="60" t="s">
-        <v>732</v>
-      </c>
-      <c r="C26" s="112">
-        <v>2</v>
-      </c>
-      <c r="D26" s="113">
+        <v>813</v>
+      </c>
+      <c r="C26" s="110">
+        <v>2</v>
+      </c>
+      <c r="D26" s="111">
         <v>306</v>
       </c>
-      <c r="E26" s="114"/>
-      <c r="F26" s="115" t="s">
-        <v>733</v>
-      </c>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="113" t="s">
+        <v>814</v>
+      </c>
+      <c r="G26" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="114" t="s">
+        <v>815</v>
+      </c>
+      <c r="I26" s="114"/>
+      <c r="J26" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6765,8 +7597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -6816,7 +7648,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="24" customFormat="1" ht="72" customHeight="1">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="176" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -6833,18 +7665,18 @@
       <c r="G2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A3" s="149"/>
+      <c r="A3" s="176"/>
       <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
@@ -6861,18 +7693,18 @@
       <c r="G3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="139" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="140" t="s">
+      <c r="J3" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="24" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A4" s="149"/>
+      <c r="A4" s="176"/>
       <c r="B4" s="19" t="s">
         <v>38</v>
       </c>
@@ -6889,18 +7721,18 @@
       <c r="G4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="142" t="s">
+      <c r="H4" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="122" t="s">
+      <c r="I4" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="140" t="s">
+      <c r="J4" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A5" s="149"/>
+      <c r="A5" s="176"/>
       <c r="B5" s="19" t="s">
         <v>41</v>
       </c>
@@ -6917,18 +7749,18 @@
       <c r="G5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="141" t="s">
+      <c r="H5" s="139" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="24" customFormat="1" ht="94.5">
-      <c r="A6" s="149"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="19" t="s">
         <v>44</v>
       </c>
@@ -6945,18 +7777,18 @@
       <c r="G6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="141" t="s">
+      <c r="H6" s="139" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="128" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1" ht="118.5" customHeight="1">
-      <c r="A7" s="149"/>
+      <c r="A7" s="176"/>
       <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
@@ -6973,18 +7805,18 @@
       <c r="G7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="126" t="s">
+      <c r="H7" s="124" t="s">
         <v>50</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="140" t="s">
+      <c r="J7" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A8" s="149"/>
+      <c r="A8" s="176"/>
       <c r="B8" s="19" t="s">
         <v>52</v>
       </c>
@@ -7001,18 +7833,18 @@
       <c r="G8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="132" t="s">
+      <c r="H8" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="128" t="s">
+      <c r="I8" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="140" t="s">
+      <c r="J8" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="176" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -7037,12 +7869,12 @@
       <c r="I9" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" ht="78.75">
-      <c r="A10" s="149"/>
+      <c r="A10" s="176"/>
       <c r="B10" s="19" t="s">
         <v>60</v>
       </c>
@@ -7059,18 +7891,18 @@
       <c r="G10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="125" t="s">
         <v>50</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="140" t="s">
+      <c r="J10" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="24" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="149"/>
+      <c r="A11" s="176"/>
       <c r="B11" s="19" t="s">
         <v>63</v>
       </c>
@@ -7087,18 +7919,18 @@
       <c r="G11" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="131" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="140" t="s">
+      <c r="J11" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A12" s="149"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="19" t="s">
         <v>67</v>
       </c>
@@ -7115,13 +7947,13 @@
       <c r="G12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="127" t="s">
+      <c r="H12" s="125" t="s">
         <v>50</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="140" t="s">
+      <c r="J12" s="138" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7145,12 +7977,12 @@
       <c r="I13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="140" t="s">
+      <c r="J13" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="176" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -7172,15 +8004,15 @@
       <c r="H14" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="134" t="s">
+      <c r="I14" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="140" t="s">
+      <c r="J14" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="24" customFormat="1" ht="15.75">
-      <c r="A15" s="149"/>
+      <c r="A15" s="176"/>
       <c r="B15" s="19" t="s">
         <v>76</v>
       </c>
@@ -7197,18 +8029,18 @@
       <c r="G15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="129" t="s">
+      <c r="H15" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="126" t="s">
+      <c r="I15" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="143" t="s">
+      <c r="J15" s="141" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" ht="15.75">
-      <c r="A16" s="149"/>
+      <c r="A16" s="176"/>
       <c r="B16" s="19" t="s">
         <v>78</v>
       </c>
@@ -7225,18 +8057,18 @@
       <c r="G16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="129" t="s">
+      <c r="H16" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="126" t="s">
+      <c r="I16" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="143" t="s">
+      <c r="J16" s="141" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="24" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A17" s="149"/>
+      <c r="A17" s="176"/>
       <c r="B17" s="19" t="s">
         <v>80</v>
       </c>
@@ -7256,15 +8088,15 @@
       <c r="H17" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="131" t="s">
+      <c r="I17" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="140" t="s">
+      <c r="J17" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="24" customFormat="1" ht="96" customHeight="1">
-      <c r="A18" s="149"/>
+      <c r="A18" s="176"/>
       <c r="B18" s="19" t="s">
         <v>84</v>
       </c>
@@ -7287,12 +8119,12 @@
       <c r="I18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="140" t="s">
+      <c r="J18" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="176" t="s">
         <v>87</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -7311,18 +8143,18 @@
       <c r="G19" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="127" t="s">
+      <c r="H19" s="125" t="s">
         <v>90</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="140" t="s">
+      <c r="J19" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="24" customFormat="1" ht="78.75">
-      <c r="A20" s="149"/>
+      <c r="A20" s="176"/>
       <c r="B20" s="19" t="s">
         <v>92</v>
       </c>
@@ -7339,18 +8171,18 @@
       <c r="G20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="137" t="s">
+      <c r="H20" s="135" t="s">
         <v>34</v>
       </c>
       <c r="I20" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="140" t="s">
+      <c r="J20" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A21" s="149"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="19" t="s">
         <v>95</v>
       </c>
@@ -7367,18 +8199,18 @@
       <c r="G21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="134" t="s">
+      <c r="H21" s="132" t="s">
         <v>75</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="140" t="s">
+      <c r="J21" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A22" s="149"/>
+      <c r="A22" s="176"/>
       <c r="B22" s="19" t="s">
         <v>98</v>
       </c>
@@ -7395,18 +8227,18 @@
       <c r="G22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="127" t="s">
+      <c r="H22" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="136" t="s">
+      <c r="I22" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="140" t="s">
+      <c r="J22" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="24" customFormat="1" ht="48" customHeight="1">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="176" t="s">
         <v>101</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -7422,21 +8254,21 @@
       <c r="F23" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="135" t="s">
+      <c r="G23" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="127" t="s">
+      <c r="H23" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="127" t="s">
+      <c r="I23" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="139" t="s">
+      <c r="J23" s="137" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A24" s="149"/>
+      <c r="A24" s="176"/>
       <c r="B24" s="19" t="s">
         <v>104</v>
       </c>
@@ -7453,18 +8285,18 @@
       <c r="G24" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="127" t="s">
+      <c r="H24" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="127" t="s">
+      <c r="I24" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="140" t="s">
+      <c r="J24" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A25" s="149"/>
+      <c r="A25" s="176"/>
       <c r="B25" s="19" t="s">
         <v>106</v>
       </c>
@@ -7481,18 +8313,18 @@
       <c r="G25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="127" t="s">
+      <c r="H25" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="127" t="s">
+      <c r="I25" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="140" t="s">
+      <c r="J25" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A26" s="149"/>
+      <c r="A26" s="176"/>
       <c r="B26" s="19" t="s">
         <v>108</v>
       </c>
@@ -7509,18 +8341,18 @@
       <c r="G26" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="127" t="s">
+      <c r="H26" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="127" t="s">
+      <c r="I26" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="140" t="s">
+      <c r="J26" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="24" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="176" t="s">
         <v>110</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -7545,12 +8377,12 @@
       <c r="I27" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J27" s="140" t="s">
+      <c r="J27" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A28" s="149"/>
+      <c r="A28" s="176"/>
       <c r="B28" s="19" t="s">
         <v>114</v>
       </c>
@@ -7571,12 +8403,12 @@
       <c r="I28" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="140" t="s">
+      <c r="J28" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="24" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="176" t="s">
         <v>117</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -7597,12 +8429,12 @@
       <c r="I29" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="140" t="s">
+      <c r="J29" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="24" customFormat="1" ht="78.75">
-      <c r="A30" s="149"/>
+      <c r="A30" s="176"/>
       <c r="B30" s="19" t="s">
         <v>121</v>
       </c>
@@ -7617,18 +8449,18 @@
       <c r="G30" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="138" t="s">
+      <c r="H30" s="136" t="s">
         <v>34</v>
       </c>
       <c r="I30" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J30" s="140" t="s">
+      <c r="J30" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="24" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="176" t="s">
         <v>124</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -7647,18 +8479,18 @@
       <c r="G31" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="147" t="s">
+      <c r="H31" s="145" t="s">
         <v>127</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J31" s="140" t="s">
+      <c r="J31" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A32" s="149"/>
+      <c r="A32" s="176"/>
       <c r="B32" s="19" t="s">
         <v>129</v>
       </c>
@@ -7672,16 +8504,16 @@
       <c r="F32" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="146" t="s">
+      <c r="G32" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="137" t="s">
+      <c r="H32" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="148" t="s">
+      <c r="I32" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="140" t="s">
+      <c r="J32" s="138" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7708,15 +8540,15 @@
       <c r="H33" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="I33" s="131" t="s">
+      <c r="I33" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="J33" s="140" t="s">
+      <c r="J33" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="24" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A34" s="149" t="s">
+      <c r="A34" s="176" t="s">
         <v>137</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -7741,12 +8573,12 @@
       <c r="I34" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="140" t="s">
+      <c r="J34" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A35" s="149"/>
+      <c r="A35" s="176"/>
       <c r="B35" s="19" t="s">
         <v>141</v>
       </c>
@@ -7763,18 +8595,18 @@
       <c r="G35" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="138" t="s">
+      <c r="H35" s="136" t="s">
         <v>34</v>
       </c>
       <c r="I35" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="140" t="s">
+      <c r="J35" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A36" s="149"/>
+      <c r="A36" s="176"/>
       <c r="B36" s="19" t="s">
         <v>144</v>
       </c>
@@ -7791,18 +8623,18 @@
       <c r="G36" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="138" t="s">
+      <c r="H36" s="136" t="s">
         <v>34</v>
       </c>
       <c r="I36" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J36" s="140" t="s">
+      <c r="J36" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="24" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="176" t="s">
         <v>146</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -7821,18 +8653,18 @@
       <c r="G37" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="140" t="s">
+      <c r="H37" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="126" t="s">
+      <c r="I37" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="J37" s="140" t="s">
+      <c r="J37" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="24" customFormat="1" ht="94.5">
-      <c r="A38" s="149"/>
+      <c r="A38" s="176"/>
       <c r="B38" s="19" t="s">
         <v>149</v>
       </c>
@@ -7849,13 +8681,13 @@
       <c r="G38" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="138" t="s">
+      <c r="H38" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="124" t="s">
+      <c r="I38" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="J38" s="140" t="s">
+      <c r="J38" s="138" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7873,18 +8705,18 @@
       <c r="G39" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="144" t="s">
+      <c r="H39" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="126" t="s">
+      <c r="I39" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="J39" s="143" t="s">
+      <c r="J39" s="141" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="24" customFormat="1" ht="58.9" customHeight="1">
-      <c r="A40" s="149" t="s">
+      <c r="A40" s="176" t="s">
         <v>153</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -7906,15 +8738,15 @@
       <c r="H40" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="131" t="s">
+      <c r="I40" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="J40" s="140" t="s">
+      <c r="J40" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A41" s="149"/>
+      <c r="A41" s="176"/>
       <c r="B41" s="19" t="s">
         <v>157</v>
       </c>
@@ -7931,18 +8763,18 @@
       <c r="G41" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="145" t="s">
+      <c r="H41" s="143" t="s">
         <v>34</v>
       </c>
       <c r="I41" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="J41" s="140" t="s">
+      <c r="J41" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A42" s="149"/>
+      <c r="A42" s="176"/>
       <c r="B42" s="19" t="s">
         <v>160</v>
       </c>
@@ -7959,18 +8791,18 @@
       <c r="G42" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="138" t="s">
+      <c r="H42" s="136" t="s">
         <v>34</v>
       </c>
       <c r="I42" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="J42" s="140" t="s">
+      <c r="J42" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A43" s="149"/>
+      <c r="A43" s="176"/>
       <c r="B43" s="19" t="s">
         <v>163</v>
       </c>
@@ -7985,18 +8817,18 @@
       <c r="G43" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="138" t="s">
+      <c r="H43" s="136" t="s">
         <v>34</v>
       </c>
       <c r="I43" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="J43" s="140" t="s">
+      <c r="J43" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="24" customFormat="1" ht="109.5" customHeight="1">
-      <c r="A44" s="149"/>
+      <c r="A44" s="176"/>
       <c r="B44" s="19" t="s">
         <v>165</v>
       </c>
@@ -8019,12 +8851,12 @@
       <c r="I44" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J44" s="140" t="s">
+      <c r="J44" s="138" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="24" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A45" s="149"/>
+      <c r="A45" s="176"/>
       <c r="B45" s="19" t="s">
         <v>169</v>
       </c>
@@ -8044,10 +8876,10 @@
       <c r="H45" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="I45" s="123" t="s">
+      <c r="I45" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="J45" s="125" t="s">
+      <c r="J45" s="123" t="s">
         <v>173</v>
       </c>
     </row>
@@ -8084,8 +8916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -8135,7 +8967,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="24" customFormat="1" ht="54" customHeight="1">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="177" t="s">
         <v>174</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -8150,24 +8982,24 @@
       <c r="E2" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="190" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="49" t="s">
+      <c r="G2" s="189" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="191" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="116" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A3" s="150"/>
+    <row r="3" spans="1:10" s="24" customFormat="1" ht="48.75">
+      <c r="A3" s="177"/>
       <c r="B3" s="43" t="s">
         <v>179</v>
       </c>
@@ -8183,21 +9015,21 @@
       <c r="F3" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>65</v>
+      <c r="G3" s="192" t="s">
+        <v>26</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="121" t="s">
+      <c r="I3" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="120" t="s">
+      <c r="J3" s="118" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A4" s="150"/>
+    <row r="4" spans="1:10" s="24" customFormat="1" ht="48.75">
+      <c r="A4" s="177"/>
       <c r="B4" s="43" t="s">
         <v>181</v>
       </c>
@@ -8223,7 +9055,7 @@
       <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A5" s="150"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="43" t="s">
         <v>184</v>
       </c>
@@ -8239,15 +9071,19 @@
       <c r="F5" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="29" t="s">
+        <v>186</v>
+      </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="15.75">
-      <c r="A6" s="150"/>
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="31.5">
+      <c r="A6" s="177"/>
       <c r="B6" s="43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C6" s="50">
         <v>1</v>
@@ -8259,17 +9095,25 @@
         <v>176</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A7" s="150"/>
+        <v>188</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="147" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="24" customFormat="1" ht="63">
+      <c r="A7" s="177"/>
       <c r="B7" s="43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
@@ -8281,17 +9125,25 @@
         <v>176</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+        <v>192</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J7" s="147" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="24" customFormat="1" ht="141.75">
-      <c r="A8" s="150"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="43" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C8" s="50">
         <v>1</v>
@@ -8303,17 +9155,19 @@
         <v>176</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>196</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A9" s="150"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="43" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C9" s="50">
         <v>1</v>
@@ -8325,17 +9179,21 @@
         <v>176</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="29"/>
+        <v>198</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="I9" s="29"/>
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A10" s="150"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="43" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C10" s="50">
         <v>1</v>
@@ -8347,17 +9205,21 @@
         <v>176</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="29"/>
+        <v>200</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="I10" s="29"/>
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A11" s="150"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="43" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C11" s="50">
         <v>1</v>
@@ -8369,17 +9231,19 @@
         <v>176</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="27"/>
+        <v>202</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A12" s="150"/>
+      <c r="A12" s="177"/>
       <c r="B12" s="43" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C12" s="50">
         <v>1</v>
@@ -8391,17 +9255,19 @@
         <v>176</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="27"/>
+        <v>204</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A13" s="150"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="43" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C13" s="50">
         <v>1</v>
@@ -8413,19 +9279,21 @@
         <v>176</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" ht="111" customHeight="1">
-      <c r="A14" s="150" t="s">
-        <v>202</v>
+      <c r="A14" s="177" t="s">
+        <v>207</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C14" s="50">
         <v>1</v>
@@ -8434,20 +9302,22 @@
         <v>307</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="27"/>
+        <v>210</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" s="24" customFormat="1" ht="78.75">
-      <c r="A15" s="150"/>
+      <c r="A15" s="177"/>
       <c r="B15" s="43" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C15" s="50">
         <v>1</v>
@@ -8456,20 +9326,22 @@
         <v>304</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="27"/>
+        <v>213</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" ht="94.5">
-      <c r="A16" s="150"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="43" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C16" s="50">
         <v>1</v>
@@ -8479,17 +9351,19 @@
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16" s="27"/>
+        <v>215</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A17" s="150"/>
+      <c r="A17" s="177"/>
       <c r="B17" s="43" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C17" s="52">
         <v>3</v>
@@ -8498,20 +9372,22 @@
         <v>308</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="27"/>
+        <v>218</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A18" s="150"/>
+      <c r="A18" s="177"/>
       <c r="B18" s="43" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C18" s="52">
         <v>3</v>
@@ -8520,20 +9396,24 @@
         <v>319</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="27"/>
+        <v>221</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="I18" s="29" t="s">
+        <v>222</v>
+      </c>
       <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A19" s="150"/>
+      <c r="A19" s="177"/>
       <c r="B19" s="43" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C19" s="52">
         <v>3</v>
@@ -8542,20 +9422,22 @@
         <v>308</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G19" s="27"/>
+        <v>225</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A20" s="150"/>
+      <c r="A20" s="177"/>
       <c r="B20" s="43" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C20" s="52">
         <v>3</v>
@@ -8564,22 +9446,24 @@
         <v>308</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="27"/>
+        <v>228</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" s="24" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A21" s="150" t="s">
-        <v>223</v>
+      <c r="A21" s="177" t="s">
+        <v>229</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C21" s="50">
         <v>1</v>
@@ -8588,20 +9472,22 @@
         <v>330</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="27"/>
+        <v>232</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A22" s="150"/>
+      <c r="A22" s="177"/>
       <c r="B22" s="43" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C22" s="53">
         <v>2</v>
@@ -8610,20 +9496,22 @@
         <v>308</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="G22" s="27"/>
+        <v>235</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A23" s="150"/>
+      <c r="A23" s="177"/>
       <c r="B23" s="43" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C23" s="53">
         <v>2</v>
@@ -8632,22 +9520,24 @@
         <v>287</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="G23" s="27"/>
+        <v>238</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" s="24" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A24" s="150" t="s">
-        <v>233</v>
+      <c r="A24" s="177" t="s">
+        <v>239</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C24" s="53">
         <v>2</v>
@@ -8659,17 +9549,23 @@
         <v>176</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+        <v>241</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>243</v>
+      </c>
       <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A25" s="150"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="43" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C25" s="53">
         <v>2</v>
@@ -8681,17 +9577,21 @@
         <v>176</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G25" s="27"/>
+        <v>245</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="I25" s="29" t="s">
+        <v>246</v>
+      </c>
       <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A26" s="150"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="43" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C26" s="53">
         <v>2</v>
@@ -8703,17 +9603,21 @@
         <v>176</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="G26" s="27"/>
+        <v>248</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="I26" s="29" t="s">
+        <v>249</v>
+      </c>
       <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A27" s="150"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="43" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C27" s="53">
         <v>2</v>
@@ -8725,17 +9629,23 @@
         <v>176</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+        <v>251</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="150" t="s">
+        <v>242</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>252</v>
+      </c>
       <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:10" s="24" customFormat="1" ht="110.25">
-      <c r="A28" s="150"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="43" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C28" s="53">
         <v>2</v>
@@ -8747,19 +9657,23 @@
         <v>176</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+        <v>254</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="149"/>
+      <c r="I28" s="29" t="s">
+        <v>255</v>
+      </c>
       <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" s="24" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="150" t="s">
-        <v>244</v>
+      <c r="A29" s="177" t="s">
+        <v>256</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C29" s="50">
         <v>1</v>
@@ -8771,17 +9685,21 @@
         <v>176</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+        <v>258</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="151"/>
+      <c r="I29" s="152" t="s">
+        <v>259</v>
+      </c>
       <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A30" s="150"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="43" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C30" s="50">
         <v>1</v>
@@ -8793,17 +9711,19 @@
         <v>176</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="G30" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A31" s="150"/>
+    <row r="31" spans="1:10" s="24" customFormat="1" ht="48" thickBot="1">
+      <c r="A31" s="177"/>
       <c r="B31" s="43" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C31" s="50">
         <v>1</v>
@@ -8815,17 +9735,21 @@
         <v>176</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+        <v>263</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>264</v>
+      </c>
       <c r="I31" s="27"/>
       <c r="J31" s="31"/>
     </row>
-    <row r="32" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A32" s="150"/>
+    <row r="32" spans="1:10" s="24" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A32" s="177"/>
       <c r="B32" s="43" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C32" s="50">
         <v>1</v>
@@ -8834,20 +9758,26 @@
         <v>16</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+        <v>266</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A33" s="150"/>
+    <row r="33" spans="1:10" s="24" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A33" s="177"/>
       <c r="B33" s="43" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C33" s="50">
         <v>1</v>
@@ -8856,20 +9786,24 @@
         <v>304</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="G33" s="27"/>
+        <v>270</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="I33" s="27" t="s">
+        <v>271</v>
+      </c>
       <c r="J33" s="31"/>
     </row>
-    <row r="34" spans="1:10" s="24" customFormat="1" ht="63">
-      <c r="A34" s="150"/>
+    <row r="34" spans="1:10" s="24" customFormat="1" ht="63.75" thickBot="1">
+      <c r="A34" s="177"/>
       <c r="B34" s="43" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C34" s="50">
         <v>1</v>
@@ -8881,17 +9815,23 @@
         <v>176</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+        <v>273</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>275</v>
+      </c>
       <c r="J34" s="31"/>
     </row>
-    <row r="35" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A35" s="150"/>
+    <row r="35" spans="1:10" s="24" customFormat="1" ht="48" thickBot="1">
+      <c r="A35" s="177"/>
       <c r="B35" s="43" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C35" s="53">
         <v>2</v>
@@ -8900,22 +9840,26 @@
         <v>308</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" s="27"/>
+        <v>277</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="I35" s="27" t="s">
+        <v>278</v>
+      </c>
       <c r="J35" s="31"/>
     </row>
-    <row r="36" spans="1:10" s="24" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="150" t="s">
-        <v>260</v>
+    <row r="36" spans="1:10" s="24" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A36" s="177" t="s">
+        <v>279</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C36" s="53">
         <v>2</v>
@@ -8924,20 +9868,20 @@
         <v>308</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="31"/>
     </row>
-    <row r="37" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A37" s="150"/>
+    <row r="37" spans="1:10" s="24" customFormat="1" ht="48" thickBot="1">
+      <c r="A37" s="177"/>
       <c r="B37" s="43" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="C37" s="53">
         <v>2</v>
@@ -8946,20 +9890,20 @@
         <v>330</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="31"/>
     </row>
-    <row r="38" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A38" s="150"/>
+    <row r="38" spans="1:10" s="24" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A38" s="177"/>
       <c r="B38" s="43" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="C38" s="53">
         <v>2</v>
@@ -8968,22 +9912,22 @@
         <v>310</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="31"/>
     </row>
-    <row r="39" spans="1:10" s="24" customFormat="1" ht="48" customHeight="1">
-      <c r="A39" s="150" t="s">
-        <v>268</v>
+    <row r="39" spans="1:10" s="24" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A39" s="177" t="s">
+        <v>287</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="C39" s="50">
         <v>1</v>
@@ -8992,20 +9936,26 @@
         <v>287</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+        <v>290</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="148" t="s">
+        <v>34</v>
+      </c>
       <c r="J39" s="31"/>
     </row>
-    <row r="40" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A40" s="150"/>
+    <row r="40" spans="1:10" s="24" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A40" s="177"/>
       <c r="B40" s="43" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C40" s="50">
         <v>1</v>
@@ -9014,20 +9964,20 @@
         <v>287</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="31"/>
     </row>
-    <row r="41" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A41" s="150"/>
+    <row r="41" spans="1:10" s="24" customFormat="1" ht="48" thickBot="1">
+      <c r="A41" s="177"/>
       <c r="B41" s="43" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C41" s="50">
         <v>1</v>
@@ -9036,20 +9986,20 @@
         <v>287</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="31"/>
     </row>
-    <row r="42" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A42" s="150"/>
+    <row r="42" spans="1:10" s="24" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A42" s="177"/>
       <c r="B42" s="43" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C42" s="50">
         <v>1</v>
@@ -9058,20 +10008,17 @@
         <v>523</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+        <v>296</v>
+      </c>
       <c r="J42" s="31"/>
     </row>
-    <row r="43" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A43" s="150"/>
+    <row r="43" spans="1:10" s="24" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A43" s="177"/>
       <c r="B43" s="43" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C43" s="53">
         <v>2</v>
@@ -9080,10 +10027,10 @@
         <v>256</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -9091,9 +10038,9 @@
       <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A44" s="150"/>
+      <c r="A44" s="177"/>
       <c r="B44" s="43" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C44" s="53">
         <v>2</v>
@@ -9102,10 +10049,10 @@
         <v>310</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -9113,11 +10060,11 @@
       <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" s="24" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A45" s="150" t="s">
-        <v>282</v>
+      <c r="A45" s="177" t="s">
+        <v>301</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
@@ -9126,20 +10073,22 @@
         <v>613</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="G45" s="27"/>
+        <v>304</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A46" s="150"/>
+      <c r="A46" s="177"/>
       <c r="B46" s="43" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C46" s="53">
         <v>2</v>
@@ -9148,20 +10097,22 @@
         <v>320</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="G46" s="27"/>
+        <v>306</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="31"/>
     </row>
     <row r="47" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A47" s="150"/>
+      <c r="A47" s="177"/>
       <c r="B47" s="43" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C47" s="53">
         <v>2</v>
@@ -9170,20 +10121,22 @@
         <v>326</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="G47" s="27"/>
+        <v>308</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="31"/>
     </row>
     <row r="48" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A48" s="150"/>
+      <c r="A48" s="177"/>
       <c r="B48" s="43" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C48" s="53">
         <v>2</v>
@@ -9192,20 +10145,22 @@
         <v>287</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="G48" s="27"/>
+        <v>310</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
       <c r="J48" s="31"/>
     </row>
     <row r="49" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A49" s="150"/>
+      <c r="A49" s="177"/>
       <c r="B49" s="43" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C49" s="53">
         <v>2</v>
@@ -9214,20 +10169,22 @@
         <v>287</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="G49" s="27"/>
+        <v>313</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="31"/>
     </row>
-    <row r="50" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A50" s="150"/>
+    <row r="50" spans="1:10" s="24" customFormat="1" ht="48" thickBot="1">
+      <c r="A50" s="177"/>
       <c r="B50" s="43" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C50" s="53">
         <v>2</v>
@@ -9236,20 +10193,22 @@
         <v>613</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="G50" s="27"/>
+        <v>316</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
       <c r="J50" s="31"/>
     </row>
-    <row r="51" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A51" s="150"/>
+    <row r="51" spans="1:10" s="24" customFormat="1" ht="48" thickBot="1">
+      <c r="A51" s="177"/>
       <c r="B51" s="43" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C51" s="52">
         <v>3</v>
@@ -9258,22 +10217,26 @@
         <v>308</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="G51" s="27"/>
+        <v>319</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
+      <c r="I51" s="29" t="s">
+        <v>320</v>
+      </c>
       <c r="J51" s="31"/>
     </row>
-    <row r="52" spans="1:10" s="24" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A52" s="150" t="s">
-        <v>301</v>
+    <row r="52" spans="1:10" s="24" customFormat="1" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A52" s="177" t="s">
+        <v>321</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C52" s="53">
         <v>2</v>
@@ -9282,10 +10245,10 @@
         <v>320</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
@@ -9293,9 +10256,9 @@
       <c r="J52" s="31"/>
     </row>
     <row r="53" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A53" s="150"/>
+      <c r="A53" s="177"/>
       <c r="B53" s="43" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C53" s="53">
         <v>2</v>
@@ -9304,10 +10267,10 @@
         <v>330</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -9315,9 +10278,9 @@
       <c r="J53" s="31"/>
     </row>
     <row r="54" spans="1:10" s="24" customFormat="1" ht="31.5">
-      <c r="A54" s="150"/>
+      <c r="A54" s="177"/>
       <c r="B54" s="43" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C54" s="53">
         <v>2</v>
@@ -9326,102 +10289,116 @@
         <v>327</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
       <c r="J54" s="31"/>
     </row>
-    <row r="55" spans="1:10" s="24" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A55" s="150" t="s">
-        <v>309</v>
+    <row r="55" spans="1:10" s="24" customFormat="1" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A55" s="177" t="s">
+        <v>329</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D55" s="51">
         <v>287</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
       <c r="J55" s="31"/>
     </row>
-    <row r="56" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A56" s="150"/>
+    <row r="56" spans="1:10" s="24" customFormat="1" ht="48" thickBot="1">
+      <c r="A56" s="177"/>
       <c r="B56" s="43" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D56" s="51">
         <v>255</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
+        <v>335</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>337</v>
+      </c>
       <c r="J56" s="31"/>
     </row>
-    <row r="57" spans="1:10" s="24" customFormat="1" ht="47.25">
-      <c r="A57" s="150"/>
+    <row r="57" spans="1:10" s="24" customFormat="1" ht="48" thickBot="1">
+      <c r="A57" s="177"/>
       <c r="B57" s="43" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="C57" s="53" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D57" s="51">
         <v>522</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G57" s="27"/>
+        <v>339</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
       <c r="J57" s="31"/>
     </row>
-    <row r="58" spans="1:10" s="24" customFormat="1" ht="94.5">
-      <c r="A58" s="150"/>
+    <row r="58" spans="1:10" s="24" customFormat="1" ht="95.25" thickBot="1">
+      <c r="A58" s="177"/>
       <c r="B58" s="43" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D58" s="55">
         <v>798</v>
       </c>
       <c r="E58" s="33"/>
       <c r="F58" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
+        <v>341</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="I58" s="121" t="s">
+        <v>342</v>
+      </c>
       <c r="J58" s="36"/>
     </row>
   </sheetData>
@@ -9438,7 +10415,7 @@
     <mergeCell ref="A29:A35"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G43:G58 G2:G41" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9456,8 +10433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="I9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -9508,10 +10485,10 @@
     </row>
     <row r="2" spans="1:10" ht="42">
       <c r="A2" s="1" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -9521,19 +10498,27 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="63"/>
+        <v>345</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J2" s="153" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A3" s="150" t="s">
-        <v>323</v>
+      <c r="A3" s="177" t="s">
+        <v>347</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -9545,17 +10530,25 @@
         <v>7.1</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="31"/>
+        <v>349</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="J3" s="154" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="47.25">
-      <c r="A4" s="150"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="60" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -9567,7 +10560,7 @@
         <v>7.1</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
@@ -9575,9 +10568,9 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="47.25">
-      <c r="A5" s="150"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="60" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -9589,17 +10582,25 @@
         <v>7.1</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="31"/>
+        <v>355</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="J5" s="154" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="63">
-      <c r="A6" s="150"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="60" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="C6" s="66">
         <v>2</v>
@@ -9611,19 +10612,27 @@
         <v>7.1</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="150" t="s">
-        <v>332</v>
+        <v>359</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="J6" s="154" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A7" s="177" t="s">
+        <v>361</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -9635,17 +10644,23 @@
         <v>7.1</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+        <v>363</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>364</v>
+      </c>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" ht="110.25">
-      <c r="A8" s="150"/>
+    <row r="8" spans="1:10" ht="111" thickBot="1">
+      <c r="A8" s="177"/>
       <c r="B8" s="60" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -9657,17 +10672,23 @@
         <v>7.2</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+        <v>366</v>
+      </c>
+      <c r="G8" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="160" t="s">
+        <v>367</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" ht="63">
-      <c r="A9" s="150"/>
+    <row r="9" spans="1:10" ht="63.75" thickBot="1">
+      <c r="A9" s="177"/>
       <c r="B9" s="60" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C9" s="66">
         <v>2</v>
@@ -9677,17 +10698,18 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="27"/>
+        <v>370</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="150"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="60" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="C10" s="66">
         <v>2</v>
@@ -9699,19 +10721,21 @@
         <v>7.1</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="G10" s="27"/>
+        <v>372</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="48" customHeight="1">
-      <c r="A11" s="150" t="s">
-        <v>341</v>
+      <c r="A11" s="177" t="s">
+        <v>373</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C11" s="64">
         <v>1</v>
@@ -9720,20 +10744,22 @@
         <v>614</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="G11" s="27"/>
+        <v>376</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="47.25">
-      <c r="A12" s="150"/>
+      <c r="A12" s="177"/>
       <c r="B12" s="60" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -9742,20 +10768,22 @@
         <v>1004</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="G12" s="27"/>
+        <v>378</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="63">
-      <c r="A13" s="150"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="60" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
@@ -9764,20 +10792,22 @@
         <v>16</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="G13" s="27"/>
+        <v>380</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="31.5">
-      <c r="A14" s="150"/>
+      <c r="A14" s="177"/>
       <c r="B14" s="60" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -9786,20 +10816,22 @@
         <v>16</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="G14" s="27"/>
+        <v>382</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="94.5">
-      <c r="A15" s="150"/>
+      <c r="A15" s="177"/>
       <c r="B15" s="60" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="C15" s="64">
         <v>1</v>
@@ -9808,22 +10840,24 @@
         <v>16</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="G15" s="27"/>
+        <v>384</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A16" s="150" t="s">
-        <v>353</v>
+      <c r="A16" s="177" t="s">
+        <v>385</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="C16" s="66">
         <v>2</v>
@@ -9832,20 +10866,24 @@
         <v>290</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+        <v>388</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>350</v>
+      </c>
       <c r="I16" s="27"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" ht="31.5">
-      <c r="A17" s="150"/>
+      <c r="A17" s="177"/>
       <c r="B17" s="60" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="C17" s="66">
         <v>2</v>
@@ -9855,17 +10893,21 @@
       </c>
       <c r="E17" s="65"/>
       <c r="F17" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+        <v>390</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>356</v>
+      </c>
       <c r="I17" s="27"/>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="47.25">
-      <c r="A18" s="150"/>
+      <c r="A18" s="177"/>
       <c r="B18" s="60" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="C18" s="66">
         <v>2</v>
@@ -9875,19 +10917,23 @@
       </c>
       <c r="E18" s="65"/>
       <c r="F18" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+        <v>392</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>356</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A19" s="150" t="s">
-        <v>361</v>
+      <c r="A19" s="177" t="s">
+        <v>393</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="C19" s="67">
         <v>3</v>
@@ -9896,20 +10942,26 @@
         <v>613</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+        <v>396</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="I19" s="156" t="s">
+        <v>397</v>
+      </c>
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" ht="47.25">
-      <c r="A20" s="150"/>
+      <c r="A20" s="177"/>
       <c r="B20" s="60" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="C20" s="67">
         <v>3</v>
@@ -9918,22 +10970,28 @@
         <v>613</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+        <v>399</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>397</v>
+      </c>
       <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" ht="47.25">
       <c r="A21" s="1" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="C21" s="68">
         <v>1</v>
@@ -9943,9 +11001,11 @@
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="G21" s="34"/>
+        <v>402</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="36"/>
@@ -9986,8 +11046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -10037,11 +11097,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="150" t="s">
-        <v>370</v>
+      <c r="A2" s="177" t="s">
+        <v>403</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -10051,17 +11111,19 @@
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="47" t="s">
-        <v>372</v>
-      </c>
-      <c r="G2" s="48"/>
+        <v>405</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="47.25">
-      <c r="A3" s="150"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="75" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -10071,17 +11133,19 @@
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="G3" s="27"/>
+        <v>407</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="94.5">
-      <c r="A4" s="150"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="75" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -10091,17 +11155,19 @@
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>409</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="150"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="75" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -10120,10 +11186,10 @@
       <c r="I5" s="27"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:10" ht="47.25">
-      <c r="A6" s="150"/>
+    <row r="6" spans="1:10" ht="71.25" customHeight="1">
+      <c r="A6" s="177"/>
       <c r="B6" s="75" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -10133,19 +11199,19 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>412</v>
+      </c>
+      <c r="G6" s="157"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="150" t="s">
-        <v>380</v>
+      <c r="A7" s="177" t="s">
+        <v>413</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -10155,17 +11221,17 @@
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="G7" s="27"/>
+        <v>415</v>
+      </c>
+      <c r="G7" s="157"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" ht="47.25">
-      <c r="A8" s="150"/>
+    <row r="8" spans="1:10" ht="126">
+      <c r="A8" s="177"/>
       <c r="B8" s="75" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -10175,19 +11241,23 @@
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>417</v>
+      </c>
+      <c r="G8" s="169" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="I8" s="29" t="s">
+        <v>418</v>
+      </c>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A9" s="150" t="s">
-        <v>385</v>
+      <c r="A9" s="177" t="s">
+        <v>419</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -10197,17 +11267,21 @@
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="G9" s="27"/>
+        <v>421</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="I9" s="29" t="s">
+        <v>422</v>
+      </c>
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="63">
-      <c r="A10" s="150"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="75" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -10217,17 +11291,21 @@
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="27"/>
+        <v>424</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="29" t="s">
+        <v>425</v>
+      </c>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="63">
-      <c r="A11" s="150"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="75" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="C11" s="76">
         <v>2</v>
@@ -10237,9 +11315,9 @@
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="G11" s="34"/>
+        <v>427</v>
+      </c>
+      <c r="G11" s="165"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="36"/>
@@ -10269,8 +11347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -10319,11 +11397,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A2" s="150" t="s">
-        <v>392</v>
+      <c r="A2" s="177" t="s">
+        <v>428</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -10333,17 +11411,17 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="63"/>
     </row>
-    <row r="3" spans="1:10" ht="94.5">
-      <c r="A3" s="150"/>
+    <row r="3" spans="1:10" ht="96" customHeight="1">
+      <c r="A3" s="177"/>
       <c r="B3" s="60" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -10353,7 +11431,7 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -10361,9 +11439,9 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="78.75">
-      <c r="A4" s="150"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="60" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -10373,17 +11451,23 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+        <v>434</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>436</v>
+      </c>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="110.25">
-      <c r="A5" s="150"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="60" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -10393,17 +11477,21 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>400</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+        <v>438</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="172" t="s">
+        <v>435</v>
+      </c>
       <c r="I5" s="27"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="47.25">
-      <c r="A6" s="150"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="60" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -10413,19 +11501,23 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>440</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="29" t="s">
+        <v>441</v>
+      </c>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A7" s="150" t="s">
-        <v>403</v>
+      <c r="A7" s="177" t="s">
+        <v>442</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -10435,17 +11527,17 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="166"/>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="31.5">
-      <c r="A8" s="150"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="60" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -10455,17 +11547,17 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" ht="31.5">
-      <c r="A9" s="150"/>
+    <row r="9" spans="1:10" ht="110.25">
+      <c r="A9" s="177"/>
       <c r="B9" s="60" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -10474,18 +11566,24 @@
         <v>147</v>
       </c>
       <c r="E9" s="65"/>
-      <c r="F9" s="78" t="s">
-        <v>407</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="F9" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="174" t="s">
+        <v>447</v>
+      </c>
+      <c r="I9" s="175" t="s">
+        <v>448</v>
+      </c>
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="63">
-      <c r="A10" s="150"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="60" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -10495,17 +11593,19 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>409</v>
-      </c>
-      <c r="G10" s="27"/>
+        <v>450</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="47.25">
-      <c r="A11" s="150"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="60" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C11" s="64">
         <v>1</v>
@@ -10515,7 +11615,7 @@
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="78" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -10523,9 +11623,9 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="63">
-      <c r="A12" s="150"/>
+      <c r="A12" s="177"/>
       <c r="B12" s="60" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -10535,7 +11635,7 @@
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="78" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -10543,9 +11643,9 @@
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="63">
-      <c r="A13" s="150"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="60" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
@@ -10555,7 +11655,7 @@
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="78" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -10563,9 +11663,9 @@
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="63">
-      <c r="A14" s="150"/>
+      <c r="A14" s="177"/>
       <c r="B14" s="60" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -10575,7 +11675,7 @@
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="78" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -10583,11 +11683,11 @@
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1">
-      <c r="A15" s="150" t="s">
-        <v>415</v>
+      <c r="A15" s="177" t="s">
+        <v>456</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="C15" s="64">
         <v>1</v>
@@ -10597,7 +11697,7 @@
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="78" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -10605,9 +11705,9 @@
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="78.75">
-      <c r="A16" s="150"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="60" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="C16" s="64">
         <v>1</v>
@@ -10617,7 +11717,7 @@
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="78" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -10625,9 +11725,9 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" ht="63">
-      <c r="A17" s="150"/>
+      <c r="A17" s="177"/>
       <c r="B17" s="60" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="C17" s="64">
         <v>1</v>
@@ -10637,7 +11737,7 @@
       </c>
       <c r="E17" s="65"/>
       <c r="F17" s="78" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -10645,9 +11745,9 @@
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="78.75">
-      <c r="A18" s="150"/>
+      <c r="A18" s="177"/>
       <c r="B18" s="60" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="C18" s="64">
         <v>1</v>
@@ -10657,17 +11757,21 @@
       </c>
       <c r="E18" s="65"/>
       <c r="F18" s="78" t="s">
-        <v>423</v>
-      </c>
-      <c r="G18" s="27"/>
+        <v>464</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="29" t="s">
+        <v>465</v>
+      </c>
       <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" ht="94.5">
-      <c r="A19" s="150"/>
+      <c r="A19" s="177"/>
       <c r="B19" s="60" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="C19" s="64">
         <v>1</v>
@@ -10677,7 +11781,7 @@
       </c>
       <c r="E19" s="65"/>
       <c r="F19" s="78" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -10685,9 +11789,9 @@
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" ht="63">
-      <c r="A20" s="150"/>
+      <c r="A20" s="177"/>
       <c r="B20" s="60" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="C20" s="64">
         <v>1</v>
@@ -10697,7 +11801,7 @@
       </c>
       <c r="E20" s="65"/>
       <c r="F20" s="78" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -10705,9 +11809,9 @@
       <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" ht="78.75">
-      <c r="A21" s="150"/>
+      <c r="A21" s="177"/>
       <c r="B21" s="60" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="C21" s="64">
         <v>1</v>
@@ -10717,7 +11821,7 @@
       </c>
       <c r="E21" s="65"/>
       <c r="F21" s="78" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -10725,9 +11829,9 @@
       <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" ht="78.75">
-      <c r="A22" s="150"/>
+      <c r="A22" s="177"/>
       <c r="B22" s="60" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="C22" s="64">
         <v>1</v>
@@ -10737,7 +11841,7 @@
       </c>
       <c r="E22" s="65"/>
       <c r="F22" s="78" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -10745,9 +11849,9 @@
       <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" ht="31.5">
-      <c r="A23" s="150"/>
+      <c r="A23" s="177"/>
       <c r="B23" s="60" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="C23" s="64">
         <v>1</v>
@@ -10757,17 +11861,19 @@
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="G23" s="27"/>
+        <v>475</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" ht="47.25">
-      <c r="A24" s="150"/>
+      <c r="A24" s="177"/>
       <c r="B24" s="60" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="C24" s="64">
         <v>1</v>
@@ -10777,19 +11883,21 @@
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="78" t="s">
-        <v>435</v>
-      </c>
-      <c r="G24" s="27"/>
+        <v>477</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1">
-      <c r="A25" s="150" t="s">
-        <v>436</v>
+      <c r="A25" s="177" t="s">
+        <v>478</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C25" s="66">
         <v>2</v>
@@ -10799,7 +11907,7 @@
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="78" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -10807,9 +11915,9 @@
       <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" ht="31.5">
-      <c r="A26" s="150"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="60" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="C26" s="66">
         <v>2</v>
@@ -10819,7 +11927,7 @@
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="78" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -10827,9 +11935,9 @@
       <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="150"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="60" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="C27" s="66">
         <v>2</v>
@@ -10839,7 +11947,7 @@
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="78" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -10847,11 +11955,11 @@
       <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A28" s="150" t="s">
-        <v>443</v>
+      <c r="A28" s="177" t="s">
+        <v>485</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="C28" s="64">
         <v>1</v>
@@ -10861,7 +11969,7 @@
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="78" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -10869,9 +11977,9 @@
       <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" ht="63">
-      <c r="A29" s="150"/>
+      <c r="A29" s="177"/>
       <c r="B29" s="60" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="C29" s="64">
         <v>1</v>
@@ -10881,17 +11989,21 @@
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="78" t="s">
-        <v>447</v>
-      </c>
-      <c r="G29" s="27"/>
+        <v>489</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="I29" s="27" t="s">
+        <v>490</v>
+      </c>
       <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" ht="47.25">
-      <c r="A30" s="150"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="60" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="C30" s="64">
         <v>1</v>
@@ -10901,7 +12013,7 @@
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="78" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -10909,9 +12021,9 @@
       <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:10" ht="47.25">
-      <c r="A31" s="150"/>
+      <c r="A31" s="177"/>
       <c r="B31" s="60" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="C31" s="68">
         <v>1</v>
@@ -10921,11 +12033,15 @@
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="79" t="s">
-        <v>451</v>
-      </c>
-      <c r="G31" s="34"/>
+        <v>494</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
+      <c r="I31" s="34" t="s">
+        <v>495</v>
+      </c>
       <c r="J31" s="36"/>
     </row>
   </sheetData>
@@ -10955,8 +12071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="D7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -10966,7 +12082,7 @@
     <col min="3" max="3" width="12.42578125" style="57" customWidth="1"/>
     <col min="4" max="5" width="8.85546875" style="57"/>
     <col min="6" max="6" width="97.140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="24" customWidth="1"/>
     <col min="8" max="8" width="36.140625" style="24" customWidth="1"/>
     <col min="9" max="9" width="18" style="24" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" style="24" customWidth="1"/>
@@ -11006,11 +12122,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="150" t="s">
-        <v>452</v>
+      <c r="A2" s="177" t="s">
+        <v>496</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="C2" s="80">
         <v>2</v>
@@ -11020,17 +12136,23 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>454</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+        <v>498</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>500</v>
+      </c>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="31.5">
-      <c r="A3" s="150"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="60" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="C3" s="66">
         <v>2</v>
@@ -11040,17 +12162,19 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>456</v>
-      </c>
-      <c r="G3" s="27"/>
+        <v>502</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="47.25">
-      <c r="A4" s="150"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="60" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C4" s="66">
         <v>2</v>
@@ -11060,19 +12184,23 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>503</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="I4" s="29" t="s">
+        <v>504</v>
+      </c>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A5" s="150" t="s">
-        <v>458</v>
+      <c r="A5" s="177" t="s">
+        <v>505</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -11082,7 +12210,7 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -11090,9 +12218,9 @@
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="47.25">
-      <c r="A6" s="150"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="60" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="C6" s="66">
         <v>2</v>
@@ -11102,17 +12230,21 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>462</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>509</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="29" t="s">
+        <v>510</v>
+      </c>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="31.5">
-      <c r="A7" s="150"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="60" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="C7" s="66">
         <v>2</v>
@@ -11122,17 +12254,17 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" ht="47.25">
-      <c r="A8" s="150"/>
+    <row r="8" spans="1:10" ht="110.25">
+      <c r="A8" s="177"/>
       <c r="B8" s="60" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="C8" s="66">
         <v>2</v>
@@ -11142,17 +12274,23 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>466</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+        <v>514</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>515</v>
+      </c>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="47.25">
-      <c r="A9" s="150"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="60" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="C9" s="66">
         <v>2</v>
@@ -11162,17 +12300,19 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>468</v>
-      </c>
-      <c r="G9" s="27"/>
+        <v>517</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="47.25">
-      <c r="A10" s="150"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="60" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="C10" s="66">
         <v>2</v>
@@ -11182,7 +12322,7 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -11190,9 +12330,9 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="31.5">
-      <c r="A11" s="150"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="60" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="C11" s="67">
         <v>3</v>
@@ -11202,7 +12342,7 @@
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="78" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -11210,9 +12350,9 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="31.5">
-      <c r="A12" s="150"/>
+      <c r="A12" s="177"/>
       <c r="B12" s="60" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="C12" s="67">
         <v>3</v>
@@ -11222,7 +12362,7 @@
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="78" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -11230,11 +12370,11 @@
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="150" t="s">
-        <v>475</v>
+      <c r="A13" s="177" t="s">
+        <v>524</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="C13" s="66">
         <v>2</v>
@@ -11244,7 +12384,7 @@
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="78" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -11252,9 +12392,9 @@
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="47.25">
-      <c r="A14" s="150"/>
+      <c r="A14" s="177"/>
       <c r="B14" s="60" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="C14" s="66">
         <v>2</v>
@@ -11264,17 +12404,19 @@
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="78" t="s">
-        <v>479</v>
-      </c>
-      <c r="G14" s="27"/>
+        <v>528</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="31.5">
-      <c r="A15" s="150"/>
+      <c r="A15" s="177"/>
       <c r="B15" s="60" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="C15" s="67">
         <v>3</v>
@@ -11284,7 +12426,7 @@
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="78" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -11292,11 +12434,11 @@
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="150" t="s">
-        <v>482</v>
+      <c r="A16" s="177" t="s">
+        <v>531</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="C16" s="66">
         <v>2</v>
@@ -11306,7 +12448,7 @@
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="78" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -11314,9 +12456,9 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" ht="47.25">
-      <c r="A17" s="150"/>
+      <c r="A17" s="177"/>
       <c r="B17" s="60" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="C17" s="76">
         <v>2</v>
@@ -11326,7 +12468,7 @@
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="79" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
@@ -11360,7 +12502,7 @@
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -11409,12 +12551,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="150" t="s">
-        <v>487</v>
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="177" t="s">
+        <v>536</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="C2" s="86">
         <v>1</v>
@@ -11424,17 +12566,21 @@
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="89" t="s">
-        <v>488</v>
-      </c>
-      <c r="G2" s="90"/>
+        <v>537</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>33</v>
+      </c>
       <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
+      <c r="I2" s="161" t="s">
+        <v>538</v>
+      </c>
       <c r="J2" s="91"/>
     </row>
-    <row r="3" spans="1:10" ht="47.25">
-      <c r="A3" s="150"/>
+    <row r="3" spans="1:10" ht="48" thickBot="1">
+      <c r="A3" s="177"/>
       <c r="B3" s="60" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -11444,17 +12590,21 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>489</v>
-      </c>
-      <c r="G3" s="27"/>
+        <v>539</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="I3" s="162" t="s">
+        <v>538</v>
+      </c>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:10" ht="63">
-      <c r="A4" s="150"/>
+    <row r="4" spans="1:10" ht="63.75" thickBot="1">
+      <c r="A4" s="177"/>
       <c r="B4" s="60" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="C4" s="66">
         <v>2</v>
@@ -11464,17 +12614,19 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>491</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>541</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="47.25">
-      <c r="A5" s="150"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="60" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -11484,19 +12636,21 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>493</v>
-      </c>
-      <c r="G5" s="27"/>
+        <v>543</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="150" t="s">
-        <v>494</v>
+      <c r="A6" s="177" t="s">
+        <v>544</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="C6" s="66">
         <v>2</v>
@@ -11506,17 +12660,19 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>495</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>545</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="47.25">
-      <c r="A7" s="150"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="60" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="C7" s="66">
         <v>2</v>
@@ -11526,19 +12682,21 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>497</v>
-      </c>
-      <c r="G7" s="27"/>
+        <v>547</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="150" t="s">
-        <v>498</v>
+      <c r="A8" s="177" t="s">
+        <v>548</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="C8" s="66">
         <v>2</v>
@@ -11548,17 +12706,19 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>500</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>550</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="150"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="60" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="C9" s="66">
         <v>2</v>
@@ -11568,7 +12728,7 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>33</v>
@@ -11578,9 +12738,9 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="150"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="60" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="C10" s="66">
         <v>2</v>
@@ -11590,17 +12750,19 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>504</v>
-      </c>
-      <c r="G10" s="27"/>
+        <v>554</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="63">
-      <c r="A11" s="150"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="60" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="C11" s="66">
         <v>2</v>
@@ -11608,19 +12770,21 @@
       <c r="D11" s="26"/>
       <c r="E11" s="65"/>
       <c r="F11" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="G11" s="27"/>
+        <v>556</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A12" s="150" t="s">
-        <v>507</v>
+    <row r="12" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A12" s="177" t="s">
+        <v>557</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -11630,17 +12794,21 @@
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="78" t="s">
-        <v>509</v>
-      </c>
-      <c r="G12" s="27"/>
+        <v>559</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="I12" s="29" t="s">
+        <v>560</v>
+      </c>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" ht="47.25">
-      <c r="A13" s="150"/>
+    <row r="13" spans="1:10" ht="48" thickBot="1">
+      <c r="A13" s="177"/>
       <c r="B13" s="60" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="C13" s="66">
         <v>2</v>
@@ -11650,17 +12818,21 @@
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="78" t="s">
-        <v>511</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+        <v>562</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="164" t="s">
+        <v>563</v>
+      </c>
       <c r="I13" s="27"/>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" ht="47.25">
-      <c r="A14" s="150"/>
+    <row r="14" spans="1:10" ht="48" thickBot="1">
+      <c r="A14" s="177"/>
       <c r="B14" s="60" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="C14" s="76">
         <v>2</v>
@@ -11670,10 +12842,14 @@
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="79" t="s">
-        <v>513</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+        <v>565</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>563</v>
+      </c>
       <c r="I14" s="34"/>
       <c r="J14" s="36"/>
     </row>
@@ -11703,8 +12879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -11713,7 +12889,7 @@
     <col min="2" max="2" width="8.85546875" style="24"/>
     <col min="3" max="5" width="8.85546875" style="57"/>
     <col min="6" max="6" width="93" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="15" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.85546875" style="24" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="24" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" style="24" customWidth="1"/>
@@ -11753,11 +12929,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="150" t="s">
-        <v>514</v>
+      <c r="A2" s="177" t="s">
+        <v>566</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>515</v>
+        <v>567</v>
       </c>
       <c r="C2" s="80">
         <v>2</v>
@@ -11767,17 +12943,19 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>516</v>
-      </c>
-      <c r="G2" s="48"/>
+        <v>568</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>65</v>
+      </c>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="47.25">
-      <c r="A3" s="150"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="60" t="s">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="C3" s="66">
         <v>2</v>
@@ -11787,7 +12965,7 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -11795,9 +12973,9 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="150"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="60" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="C4" s="66">
         <v>2</v>
@@ -11807,17 +12985,19 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>520</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>572</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="31.5">
-      <c r="A5" s="150"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="60" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -11827,17 +13007,19 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>522</v>
-      </c>
-      <c r="G5" s="27"/>
+        <v>574</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="31.5">
-      <c r="A6" s="150"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="60" t="s">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="C6" s="67">
         <v>3</v>
@@ -11847,17 +13029,19 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>524</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>576</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="150"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="60" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="C7" s="67">
         <v>3</v>
@@ -11867,19 +13051,21 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>526</v>
-      </c>
-      <c r="G7" s="27"/>
+        <v>578</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="150" t="s">
-        <v>527</v>
+      <c r="A8" s="177" t="s">
+        <v>579</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>528</v>
+        <v>580</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -11889,17 +13075,17 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>529</v>
-      </c>
-      <c r="G8" s="27"/>
+        <v>581</v>
+      </c>
+      <c r="G8" s="157"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" ht="31.5">
-      <c r="A9" s="150"/>
+    <row r="9" spans="1:10" ht="47.25">
+      <c r="A9" s="177"/>
       <c r="B9" s="60" t="s">
-        <v>530</v>
+        <v>582</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -11909,17 +13095,21 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>531</v>
-      </c>
-      <c r="G9" s="27"/>
+        <v>583</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="I9" s="29" t="s">
+        <v>584</v>
+      </c>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="150"/>
+    <row r="10" spans="1:10" ht="63">
+      <c r="A10" s="177"/>
       <c r="B10" s="60" t="s">
-        <v>532</v>
+        <v>585</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -11929,19 +13119,25 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>533</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+        <v>586</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>587</v>
+      </c>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A11" s="150" t="s">
-        <v>534</v>
+      <c r="A11" s="177" t="s">
+        <v>588</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="C11" s="64">
         <v>1</v>
@@ -11951,17 +13147,21 @@
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="78" t="s">
-        <v>536</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+        <v>590</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>591</v>
+      </c>
       <c r="I11" s="27"/>
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="150"/>
+      <c r="A12" s="177"/>
       <c r="B12" s="60" t="s">
-        <v>537</v>
+        <v>592</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -11971,17 +13171,19 @@
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="78" t="s">
-        <v>538</v>
-      </c>
-      <c r="G12" s="27"/>
+        <v>593</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="47.25">
-      <c r="A13" s="150"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="60" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
@@ -11991,17 +13193,19 @@
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="78" t="s">
-        <v>540</v>
-      </c>
-      <c r="G13" s="27"/>
+        <v>595</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="47.25">
-      <c r="A14" s="150"/>
+      <c r="A14" s="177"/>
       <c r="B14" s="60" t="s">
-        <v>541</v>
+        <v>596</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -12011,17 +13215,19 @@
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="78" t="s">
-        <v>542</v>
-      </c>
-      <c r="G14" s="27"/>
+        <v>597</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="31.5">
-      <c r="A15" s="150"/>
+      <c r="A15" s="177"/>
       <c r="B15" s="60" t="s">
-        <v>543</v>
+        <v>598</v>
       </c>
       <c r="C15" s="66">
         <v>2</v>
@@ -12031,17 +13237,19 @@
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="78" t="s">
-        <v>544</v>
-      </c>
-      <c r="G15" s="27"/>
+        <v>599</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="31.5">
-      <c r="A16" s="150"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="60" t="s">
-        <v>545</v>
+        <v>600</v>
       </c>
       <c r="C16" s="66">
         <v>2</v>
@@ -12051,17 +13259,19 @@
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="78" t="s">
-        <v>546</v>
-      </c>
-      <c r="G16" s="27"/>
+        <v>601</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" ht="47.25">
-      <c r="A17" s="150"/>
+    <row r="17" spans="1:10" ht="63">
+      <c r="A17" s="177"/>
       <c r="B17" s="60" t="s">
-        <v>547</v>
+        <v>602</v>
       </c>
       <c r="C17" s="66">
         <v>2</v>
@@ -12071,17 +13281,21 @@
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="78" t="s">
-        <v>548</v>
-      </c>
-      <c r="G17" s="27"/>
+        <v>603</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="29" t="s">
+        <v>604</v>
+      </c>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="31.5">
-      <c r="A18" s="150"/>
+      <c r="A18" s="177"/>
       <c r="B18" s="60" t="s">
-        <v>549</v>
+        <v>605</v>
       </c>
       <c r="C18" s="76">
         <v>2</v>
@@ -12091,9 +13305,11 @@
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="79" t="s">
-        <v>550</v>
-      </c>
-      <c r="G18" s="34"/>
+        <v>606</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="36"/>
